--- a/Fossils_Ferns.xlsx
+++ b/Fossils_Ferns.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="987">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="995">
   <si>
     <t>CALIBRATION</t>
   </si>
@@ -872,6 +872,39 @@
     <t>Affinities with the Dicksoniaceae, specially Dicksonia</t>
   </si>
   <si>
+    <t>crown Drynaria</t>
+  </si>
+  <si>
+    <t>Drynaria_cf._propinqua</t>
+  </si>
+  <si>
+    <t>Drynaria</t>
+  </si>
+  <si>
+    <t>Late Miocene (Messinian-Tortonian)</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Bangmai Village, Lincang, Yunnan</t>
+  </si>
+  <si>
+    <t>Bangmai Fm.</t>
+  </si>
+  <si>
+    <t>Fertile and sterile foliage</t>
+  </si>
+  <si>
+    <t>LDGSW20151671</t>
+  </si>
+  <si>
+    <t>Liping_etal-2017</t>
+  </si>
+  <si>
+    <t>Leaf morphology aligns this species to living species of Drynaria, more specifically with D. propinqua</t>
+  </si>
+  <si>
     <t>crown Dicksonia+Calochlaena</t>
   </si>
   <si>
@@ -951,9 +984,6 @@
   </si>
   <si>
     <t>Paleocene-Eocene</t>
-  </si>
-  <si>
-    <t>China</t>
   </si>
   <si>
     <t xml:space="preserve">Nima County, the Tibet Autonomous Region, southwestern China </t>
@@ -1828,9 +1858,6 @@
   </si>
   <si>
     <t>Drynaria diplosticha</t>
-  </si>
-  <si>
-    <t>Drynaria</t>
   </si>
   <si>
     <t>late Miocene (Messinian-Tortonian)</t>
@@ -3538,9 +3565,6 @@
   </si>
   <si>
     <t>Best to replace with the fossils from Crabtree-1987, which are cited here</t>
-  </si>
-  <si>
-    <t>crown Drynaria</t>
   </si>
   <si>
     <t>Drynaria callispora</t>
@@ -5448,7 +5472,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V134"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
@@ -7036,11 +7060,11 @@
     </row>
     <row r="26" ht="20.25" customHeight="1">
       <c r="A26" s="13">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="13">
         <f>J26</f>
-        <v>66</v>
+        <v>7.246</v>
       </c>
       <c r="C26" t="s" s="14">
         <f>CONCATENATE(E26," ",F26)</f>
@@ -7056,16 +7080,16 @@
         <v>218</v>
       </c>
       <c r="G26" t="s" s="17">
-        <v>103</v>
-      </c>
-      <c r="H26" t="s" s="17">
-        <v>206</v>
-      </c>
-      <c r="I26" s="18">
-        <v>100.5</v>
+        <v>30</v>
+      </c>
+      <c r="H26" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="I26" s="13">
+        <v>11.63</v>
       </c>
       <c r="J26" s="18">
-        <v>66</v>
+        <v>7.246</v>
       </c>
       <c r="K26" t="s" s="17">
         <v>219</v>
@@ -7075,131 +7099,129 @@
         <v>32</v>
       </c>
       <c r="N26" t="s" s="17">
-        <v>127</v>
+        <v>220</v>
       </c>
       <c r="O26" t="s" s="17">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P26" t="s" s="17">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26" t="s" s="17">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="R26" t="s" s="17">
-        <v>222</v>
-      </c>
-      <c r="S26" t="s" s="17">
-        <v>130</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="S26" s="16"/>
       <c r="T26" t="s" s="17">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="U26" t="s" s="17">
-        <v>224</v>
-      </c>
-      <c r="V26" t="s" s="33">
-        <v>225</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="V26" s="16"/>
     </row>
     <row r="27" ht="20.25" customHeight="1">
       <c r="A27" s="13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="13">
         <f>J27</f>
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s" s="14">
         <f>CONCATENATE(E27," ",F27)</f>
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s" s="17">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F27" t="s" s="17">
-        <v>228</v>
-      </c>
-      <c r="G27" t="s" s="14">
         <v>229</v>
       </c>
+      <c r="G27" t="s" s="17">
+        <v>103</v>
+      </c>
       <c r="H27" t="s" s="17">
+        <v>206</v>
+      </c>
+      <c r="I27" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="J27" s="18">
+        <v>66</v>
+      </c>
+      <c r="K27" t="s" s="17">
         <v>230</v>
-      </c>
-      <c r="I27" s="18">
-        <v>166.1</v>
-      </c>
-      <c r="J27" s="18">
-        <v>145</v>
-      </c>
-      <c r="K27" t="s" s="17">
-        <v>231</v>
       </c>
       <c r="L27" s="19"/>
       <c r="M27" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N27" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="O27" t="s" s="15">
+        <v>127</v>
+      </c>
+      <c r="O27" t="s" s="17">
+        <v>231</v>
+      </c>
+      <c r="P27" t="s" s="17">
         <v>232</v>
       </c>
-      <c r="P27" t="s" s="15">
+      <c r="Q27" t="s" s="17">
+        <v>129</v>
+      </c>
+      <c r="R27" t="s" s="17">
         <v>233</v>
       </c>
-      <c r="Q27" s="17"/>
-      <c r="R27" t="s" s="15">
+      <c r="S27" t="s" s="17">
+        <v>130</v>
+      </c>
+      <c r="T27" t="s" s="17">
         <v>234</v>
       </c>
-      <c r="S27" t="s" s="15">
+      <c r="U27" t="s" s="17">
         <v>235</v>
       </c>
-      <c r="T27" t="s" s="17">
+      <c r="V27" t="s" s="33">
         <v>236</v>
-      </c>
-      <c r="U27" t="s" s="17">
-        <v>237</v>
-      </c>
-      <c r="V27" t="s" s="17">
-        <v>238</v>
       </c>
     </row>
     <row r="28" ht="20.25" customHeight="1">
       <c r="A28" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13">
         <f>J28</f>
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s" s="14">
         <f>CONCATENATE(E28," ",F28)</f>
-        <v>239</v>
-      </c>
-      <c r="D28" t="s" s="34">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D28" t="s" s="17">
+        <v>238</v>
       </c>
       <c r="E28" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F28" t="s" s="17">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s" s="14">
+        <v>240</v>
+      </c>
+      <c r="H28" t="s" s="17">
         <v>241</v>
       </c>
-      <c r="G28" t="s" s="14">
-        <v>229</v>
-      </c>
-      <c r="H28" t="s" s="17">
-        <v>230</v>
-      </c>
       <c r="I28" s="18">
-        <v>66</v>
+        <v>166.1</v>
       </c>
       <c r="J28" s="18">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="K28" t="s" s="17">
         <v>242</v>
@@ -7209,247 +7231,251 @@
         <v>32</v>
       </c>
       <c r="N28" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="O28" t="s" s="15">
         <v>243</v>
       </c>
-      <c r="O28" t="s" s="34">
+      <c r="P28" t="s" s="15">
         <v>244</v>
       </c>
-      <c r="P28" t="s" s="17">
+      <c r="Q28" s="17"/>
+      <c r="R28" t="s" s="15">
         <v>245</v>
       </c>
-      <c r="Q28" s="17"/>
-      <c r="R28" t="s" s="17">
+      <c r="S28" t="s" s="15">
         <v>246</v>
       </c>
-      <c r="S28" t="s" s="34">
+      <c r="T28" t="s" s="17">
         <v>247</v>
       </c>
-      <c r="T28" t="s" s="17">
+      <c r="U28" t="s" s="17">
         <v>248</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
+      <c r="V28" t="s" s="17">
+        <v>249</v>
+      </c>
     </row>
     <row r="29" ht="20.25" customHeight="1">
       <c r="A29" s="13">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="13">
         <f>J29</f>
-        <v>41.2</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s" s="14">
         <f>CONCATENATE(E29," ",F29)</f>
-        <v>249</v>
-      </c>
-      <c r="D29" t="s" s="17">
         <v>250</v>
+      </c>
+      <c r="D29" t="s" s="34">
+        <v>251</v>
       </c>
       <c r="E29" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F29" t="s" s="17">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G29" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H29" t="s" s="17">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I29" s="18">
-        <v>47.8</v>
+        <v>66</v>
       </c>
       <c r="J29" s="18">
-        <v>41.2</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s" s="17">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="L29" s="19"/>
       <c r="M29" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N29" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="O29" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="O29" t="s" s="34">
+        <v>254</v>
+      </c>
       <c r="P29" t="s" s="17">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="17"/>
       <c r="R29" t="s" s="17">
-        <v>253</v>
-      </c>
-      <c r="S29" t="s" s="17">
-        <v>254</v>
+        <v>256</v>
+      </c>
+      <c r="S29" t="s" s="34">
+        <v>257</v>
       </c>
       <c r="T29" t="s" s="17">
-        <v>255</v>
-      </c>
-      <c r="U29" t="s" s="17">
-        <v>237</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="U29" s="17"/>
       <c r="V29" s="17"/>
     </row>
     <row r="30" ht="20.25" customHeight="1">
       <c r="A30" s="13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="13">
         <f>J30</f>
-        <v>163.5</v>
+        <v>41.2</v>
       </c>
       <c r="C30" t="s" s="14">
         <f>CONCATENATE(E30," ",F30)</f>
-        <v>256</v>
-      </c>
-      <c r="D30" t="s" s="35">
-        <v>257</v>
+        <v>259</v>
+      </c>
+      <c r="D30" t="s" s="17">
+        <v>260</v>
       </c>
       <c r="E30" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F30" t="s" s="17">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H30" t="s" s="17">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="I30" s="18">
-        <v>174.1</v>
+        <v>47.8</v>
       </c>
       <c r="J30" s="18">
-        <v>163.5</v>
+        <v>41.2</v>
       </c>
       <c r="K30" t="s" s="17">
-        <v>259</v>
+        <v>207</v>
       </c>
       <c r="L30" s="19"/>
       <c r="M30" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N30" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="O30" t="s" s="36">
-        <v>260</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="O30" s="17"/>
       <c r="P30" t="s" s="17">
-        <v>261</v>
-      </c>
-      <c r="Q30" s="16"/>
-      <c r="R30" t="s" s="37">
         <v>262</v>
       </c>
-      <c r="S30" t="s" s="15">
+      <c r="Q30" s="17"/>
+      <c r="R30" t="s" s="17">
         <v>263</v>
       </c>
+      <c r="S30" t="s" s="17">
+        <v>264</v>
+      </c>
       <c r="T30" t="s" s="17">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="U30" t="s" s="17">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="V30" s="17"/>
     </row>
     <row r="31" ht="20.25" customHeight="1">
       <c r="A31" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13">
         <f>J31</f>
-        <v>59.2</v>
+        <v>163.5</v>
       </c>
       <c r="C31" t="s" s="14">
         <f>CONCATENATE(E31," ",F31)</f>
-        <v>265</v>
-      </c>
-      <c r="D31" t="s" s="38">
         <v>266</v>
+      </c>
+      <c r="D31" t="s" s="35">
+        <v>267</v>
       </c>
       <c r="E31" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F31" t="s" s="17">
-        <v>267</v>
-      </c>
-      <c r="G31" t="s" s="17">
-        <v>68</v>
+        <v>268</v>
+      </c>
+      <c r="G31" t="s" s="14">
+        <v>240</v>
       </c>
       <c r="H31" t="s" s="17">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="I31" s="18">
-        <v>61.6</v>
+        <v>174.1</v>
       </c>
       <c r="J31" s="18">
-        <v>59.2</v>
+        <v>163.5</v>
       </c>
       <c r="K31" t="s" s="17">
-        <v>268</v>
-      </c>
-      <c r="L31" s="17"/>
+        <v>269</v>
+      </c>
+      <c r="L31" s="19"/>
       <c r="M31" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N31" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O31" t="s" s="15">
-        <v>269</v>
+        <v>33</v>
+      </c>
+      <c r="O31" t="s" s="36">
+        <v>270</v>
       </c>
       <c r="P31" t="s" s="17">
-        <v>270</v>
-      </c>
-      <c r="Q31" s="17"/>
-      <c r="R31" t="s" s="15">
         <v>271</v>
       </c>
+      <c r="Q31" s="16"/>
+      <c r="R31" t="s" s="37">
+        <v>272</v>
+      </c>
       <c r="S31" t="s" s="15">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="T31" t="s" s="17">
-        <v>273</v>
-      </c>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
+        <v>274</v>
+      </c>
+      <c r="U31" t="s" s="17">
+        <v>248</v>
+      </c>
+      <c r="V31" s="17"/>
     </row>
     <row r="32" ht="20.25" customHeight="1">
       <c r="A32" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="13">
         <f>J32</f>
-        <v>174.1</v>
+        <v>59.2</v>
       </c>
       <c r="C32" t="s" s="14">
         <f>CONCATENATE(E32," ",F32)</f>
-        <v>274</v>
-      </c>
-      <c r="D32" t="s" s="17">
         <v>275</v>
+      </c>
+      <c r="D32" t="s" s="38">
+        <v>276</v>
       </c>
       <c r="E32" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F32" t="s" s="17">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G32" t="s" s="17">
+        <v>68</v>
+      </c>
+      <c r="H32" t="s" s="17">
         <v>277</v>
       </c>
-      <c r="H32" t="s" s="17">
-        <v>276</v>
-      </c>
       <c r="I32" s="18">
-        <v>201.3</v>
+        <v>61.6</v>
       </c>
       <c r="J32" s="18">
-        <v>174.1</v>
+        <v>59.2</v>
       </c>
       <c r="K32" t="s" s="17">
         <v>278</v>
@@ -7459,42 +7485,38 @@
         <v>32</v>
       </c>
       <c r="N32" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O32" t="s" s="25">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s" s="15">
         <v>279</v>
       </c>
       <c r="P32" t="s" s="17">
         <v>280</v>
       </c>
-      <c r="Q32" t="s" s="17">
-        <v>146</v>
-      </c>
-      <c r="R32" t="s" s="17">
+      <c r="Q32" s="17"/>
+      <c r="R32" t="s" s="15">
         <v>281</v>
       </c>
-      <c r="S32" t="s" s="25">
+      <c r="S32" t="s" s="15">
         <v>282</v>
       </c>
       <c r="T32" t="s" s="17">
         <v>283</v>
       </c>
-      <c r="U32" t="s" s="17">
-        <v>284</v>
-      </c>
+      <c r="U32" s="16"/>
       <c r="V32" s="16"/>
     </row>
     <row r="33" ht="20.25" customHeight="1">
       <c r="A33" s="13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="13">
         <f>J33</f>
-        <v>113</v>
+        <v>174.1</v>
       </c>
       <c r="C33" t="s" s="14">
         <f>CONCATENATE(E33," ",F33)</f>
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D33" t="s" s="17">
         <v>285</v>
@@ -7503,410 +7525,418 @@
         <v>56</v>
       </c>
       <c r="F33" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G33" t="s" s="17">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H33" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I33" s="18">
-        <v>125</v>
+        <v>201.3</v>
       </c>
       <c r="J33" s="18">
-        <v>113</v>
+        <v>174.1</v>
       </c>
       <c r="K33" t="s" s="17">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N33" t="s" s="17">
-        <v>287</v>
-      </c>
-      <c r="O33" t="s" s="17">
-        <v>288</v>
+        <v>220</v>
+      </c>
+      <c r="O33" t="s" s="25">
+        <v>289</v>
       </c>
       <c r="P33" t="s" s="17">
-        <v>289</v>
-      </c>
-      <c r="Q33" s="17"/>
+        <v>290</v>
+      </c>
+      <c r="Q33" t="s" s="17">
+        <v>146</v>
+      </c>
       <c r="R33" t="s" s="17">
-        <v>290</v>
-      </c>
-      <c r="S33" t="s" s="17">
-        <v>38</v>
+        <v>291</v>
+      </c>
+      <c r="S33" t="s" s="25">
+        <v>292</v>
       </c>
       <c r="T33" t="s" s="17">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="U33" t="s" s="17">
-        <v>292</v>
-      </c>
-      <c r="V33" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" ht="20.25" customHeight="1">
       <c r="A34" s="13">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="13">
         <f>J34</f>
-        <v>15.97</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s" s="14">
         <f>CONCATENATE(E34," ",F34)</f>
-        <v>293</v>
-      </c>
-      <c r="D34" t="s" s="27">
-        <v>294</v>
+        <v>284</v>
+      </c>
+      <c r="D34" t="s" s="17">
+        <v>295</v>
       </c>
       <c r="E34" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="F34" t="s" s="27">
-        <v>295</v>
-      </c>
-      <c r="G34" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s" s="39">
-        <v>58</v>
+      <c r="F34" t="s" s="17">
+        <v>286</v>
+      </c>
+      <c r="G34" t="s" s="17">
+        <v>287</v>
+      </c>
+      <c r="H34" t="s" s="17">
+        <v>286</v>
       </c>
       <c r="I34" s="18">
-        <v>20.44</v>
-      </c>
-      <c r="J34" s="30">
-        <v>15.97</v>
-      </c>
-      <c r="K34" t="s" s="34">
+        <v>125</v>
+      </c>
+      <c r="J34" s="18">
+        <v>113</v>
+      </c>
+      <c r="K34" t="s" s="17">
         <v>296</v>
       </c>
-      <c r="L34" s="29"/>
-      <c r="M34" t="s" s="26">
+      <c r="L34" s="17"/>
+      <c r="M34" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N34" t="s" s="27">
+      <c r="N34" t="s" s="17">
         <v>297</v>
       </c>
-      <c r="O34" s="16"/>
+      <c r="O34" t="s" s="17">
+        <v>298</v>
+      </c>
       <c r="P34" t="s" s="17">
-        <v>298</v>
-      </c>
-      <c r="Q34" s="29"/>
-      <c r="R34" t="s" s="34">
         <v>299</v>
       </c>
-      <c r="S34" t="s" s="34">
+      <c r="Q34" s="17"/>
+      <c r="R34" t="s" s="17">
         <v>300</v>
+      </c>
+      <c r="S34" t="s" s="17">
+        <v>38</v>
       </c>
       <c r="T34" t="s" s="17">
         <v>301</v>
       </c>
-      <c r="U34" s="17"/>
+      <c r="U34" t="s" s="17">
+        <v>302</v>
+      </c>
       <c r="V34" s="17"/>
     </row>
     <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="13">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="13">
         <f>J35</f>
-        <v>20.44</v>
+        <v>15.97</v>
       </c>
       <c r="C35" t="s" s="14">
         <f>CONCATENATE(E35," ",F35)</f>
-        <v>302</v>
-      </c>
-      <c r="D35" t="s" s="17">
         <v>303</v>
+      </c>
+      <c r="D35" t="s" s="27">
+        <v>304</v>
       </c>
       <c r="E35" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="F35" t="s" s="17">
-        <v>304</v>
+      <c r="F35" t="s" s="27">
+        <v>305</v>
       </c>
       <c r="G35" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="H35" t="s" s="40">
-        <v>304</v>
+      <c r="H35" t="s" s="39">
+        <v>58</v>
       </c>
       <c r="I35" s="18">
-        <v>23.03</v>
-      </c>
-      <c r="J35" s="18">
         <v>20.44</v>
       </c>
-      <c r="K35" t="s" s="17">
-        <v>305</v>
-      </c>
-      <c r="L35" t="s" s="17">
+      <c r="J35" s="30">
+        <v>15.97</v>
+      </c>
+      <c r="K35" t="s" s="34">
         <v>306</v>
       </c>
-      <c r="M35" t="s" s="20">
+      <c r="L35" s="29"/>
+      <c r="M35" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N35" t="s" s="17">
-        <v>144</v>
-      </c>
-      <c r="O35" s="17"/>
+      <c r="N35" t="s" s="27">
+        <v>307</v>
+      </c>
+      <c r="O35" s="16"/>
       <c r="P35" t="s" s="17">
-        <v>307</v>
-      </c>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
+        <v>308</v>
+      </c>
+      <c r="Q35" s="29"/>
+      <c r="R35" t="s" s="34">
+        <v>309</v>
+      </c>
       <c r="S35" t="s" s="34">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="T35" t="s" s="17">
-        <v>309</v>
-      </c>
-      <c r="U35" t="s" s="17">
-        <v>310</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="U35" s="17"/>
       <c r="V35" s="17"/>
     </row>
     <row r="36" ht="20.25" customHeight="1">
       <c r="A36" s="13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="13">
         <f>J36</f>
-        <v>66</v>
+        <v>20.44</v>
       </c>
       <c r="C36" t="s" s="14">
         <f>CONCATENATE(E36," ",F36)</f>
-        <v>311</v>
-      </c>
-      <c r="D36" t="s" s="14">
         <v>312</v>
       </c>
+      <c r="D36" t="s" s="17">
+        <v>313</v>
+      </c>
       <c r="E36" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F36" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s" s="17">
         <v>314</v>
       </c>
-      <c r="G36" t="s" s="17">
+      <c r="G36" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="H36" t="s" s="14">
+      <c r="H36" t="s" s="40">
+        <v>314</v>
+      </c>
+      <c r="I36" s="18">
+        <v>23.03</v>
+      </c>
+      <c r="J36" s="18">
+        <v>20.44</v>
+      </c>
+      <c r="K36" t="s" s="17">
         <v>315</v>
       </c>
-      <c r="I36" s="13">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J36" s="22">
-        <v>66</v>
-      </c>
-      <c r="K36" t="s" s="23">
+      <c r="L36" t="s" s="17">
         <v>316</v>
       </c>
-      <c r="L36" s="19"/>
-      <c r="M36" t="s" s="19">
+      <c r="M36" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N36" t="s" s="23">
+      <c r="N36" t="s" s="17">
+        <v>144</v>
+      </c>
+      <c r="O36" s="17"/>
+      <c r="P36" t="s" s="17">
         <v>317</v>
       </c>
-      <c r="O36" t="s" s="41">
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" t="s" s="34">
         <v>318</v>
       </c>
-      <c r="P36" t="s" s="23">
+      <c r="T36" t="s" s="17">
         <v>319</v>
       </c>
-      <c r="Q36" s="23"/>
-      <c r="R36" t="s" s="41">
+      <c r="U36" t="s" s="17">
         <v>320</v>
       </c>
-      <c r="S36" t="s" s="23">
-        <v>321</v>
-      </c>
-      <c r="T36" t="s" s="14">
-        <v>322</v>
-      </c>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
+      <c r="V36" s="17"/>
     </row>
     <row r="37" ht="20.25" customHeight="1">
       <c r="A37" s="13">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="13">
         <f>J37</f>
-        <v>23.03</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s" s="14">
         <f>CONCATENATE(E37," ",F37)</f>
+        <v>321</v>
+      </c>
+      <c r="D37" t="s" s="14">
+        <v>322</v>
+      </c>
+      <c r="E37" t="s" s="17">
         <v>323</v>
       </c>
-      <c r="D37" t="s" s="42">
+      <c r="F37" t="s" s="14">
         <v>324</v>
-      </c>
-      <c r="E37" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F37" t="s" s="14">
-        <v>325</v>
       </c>
       <c r="G37" t="s" s="17">
         <v>30</v>
       </c>
       <c r="H37" t="s" s="14">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="I37" s="13">
-        <v>27.82</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="J37" s="22">
-        <v>23.03</v>
+        <v>66</v>
       </c>
       <c r="K37" t="s" s="23">
-        <v>31</v>
+        <v>326</v>
       </c>
       <c r="L37" s="19"/>
       <c r="M37" t="s" s="19">
         <v>32</v>
       </c>
       <c r="N37" t="s" s="23">
-        <v>326</v>
-      </c>
-      <c r="O37" t="s" s="43">
         <v>327</v>
       </c>
-      <c r="P37" t="s" s="43">
+      <c r="O37" t="s" s="41">
         <v>328</v>
       </c>
+      <c r="P37" t="s" s="23">
+        <v>329</v>
+      </c>
       <c r="Q37" s="23"/>
-      <c r="R37" t="s" s="43">
-        <v>329</v>
-      </c>
-      <c r="S37" s="23"/>
+      <c r="R37" t="s" s="41">
+        <v>330</v>
+      </c>
+      <c r="S37" t="s" s="23">
+        <v>331</v>
+      </c>
       <c r="T37" t="s" s="14">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="U37" s="23"/>
       <c r="V37" s="23"/>
     </row>
     <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="13">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="13">
         <f>J38</f>
-        <v>47.8</v>
+        <v>23.03</v>
       </c>
       <c r="C38" t="s" s="14">
         <f>CONCATENATE(E38," ",F38)</f>
-        <v>331</v>
-      </c>
-      <c r="D38" t="s" s="44">
-        <v>332</v>
+        <v>333</v>
+      </c>
+      <c r="D38" t="s" s="42">
+        <v>334</v>
       </c>
       <c r="E38" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F38" t="s" s="17">
-        <v>333</v>
+        <v>323</v>
+      </c>
+      <c r="F38" t="s" s="14">
+        <v>335</v>
       </c>
       <c r="G38" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="H38" t="s" s="17">
-        <v>334</v>
-      </c>
-      <c r="I38" s="18">
-        <v>56</v>
-      </c>
-      <c r="J38" s="18">
-        <v>47.8</v>
-      </c>
-      <c r="K38" t="s" s="17">
-        <v>335</v>
+      <c r="H38" t="s" s="14">
+        <v>325</v>
+      </c>
+      <c r="I38" s="13">
+        <v>27.82</v>
+      </c>
+      <c r="J38" s="22">
+        <v>23.03</v>
+      </c>
+      <c r="K38" t="s" s="23">
+        <v>31</v>
       </c>
       <c r="L38" s="19"/>
-      <c r="M38" t="s" s="20">
+      <c r="M38" t="s" s="19">
         <v>32</v>
       </c>
-      <c r="N38" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O38" t="s" s="17">
+      <c r="N38" t="s" s="23">
         <v>336</v>
       </c>
-      <c r="P38" t="s" s="17">
+      <c r="O38" t="s" s="43">
         <v>337</v>
       </c>
-      <c r="Q38" t="s" s="17">
+      <c r="P38" t="s" s="43">
         <v>338</v>
       </c>
-      <c r="R38" t="s" s="17">
+      <c r="Q38" s="23"/>
+      <c r="R38" t="s" s="43">
         <v>339</v>
       </c>
-      <c r="S38" s="16"/>
-      <c r="T38" t="s" s="17">
+      <c r="S38" s="23"/>
+      <c r="T38" t="s" s="14">
         <v>340</v>
       </c>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
     </row>
     <row r="39" ht="20.25" customHeight="1">
       <c r="A39" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="13">
         <f>J39</f>
-        <v>83.59999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="C39" t="s" s="14">
         <f>CONCATENATE(E39," ",F39)</f>
         <v>341</v>
       </c>
-      <c r="D39" t="s" s="14">
+      <c r="D39" t="s" s="44">
         <v>342</v>
       </c>
       <c r="E39" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F39" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="F39" t="s" s="17">
         <v>343</v>
       </c>
-      <c r="G39" t="s" s="14">
+      <c r="G39" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s" s="17">
         <v>344</v>
       </c>
-      <c r="H39" t="s" s="14">
+      <c r="I39" s="18">
+        <v>56</v>
+      </c>
+      <c r="J39" s="18">
+        <v>47.8</v>
+      </c>
+      <c r="K39" t="s" s="17">
         <v>345</v>
-      </c>
-      <c r="I39" s="18">
-        <v>86.3</v>
-      </c>
-      <c r="J39" s="22">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="K39" t="s" s="17">
-        <v>346</v>
       </c>
       <c r="L39" s="19"/>
       <c r="M39" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N39" t="s" s="17">
+        <v>220</v>
+      </c>
+      <c r="O39" t="s" s="17">
+        <v>346</v>
+      </c>
+      <c r="P39" t="s" s="17">
         <v>347</v>
       </c>
-      <c r="O39" t="s" s="15">
+      <c r="Q39" t="s" s="17">
         <v>348</v>
       </c>
-      <c r="P39" t="s" s="17">
+      <c r="R39" t="s" s="17">
         <v>349</v>
       </c>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
       <c r="S39" s="16"/>
-      <c r="T39" t="s" s="14">
+      <c r="T39" t="s" s="17">
         <v>350</v>
       </c>
       <c r="U39" s="17"/>
@@ -7914,85 +7944,79 @@
     </row>
     <row r="40" ht="20.25" customHeight="1">
       <c r="A40" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="13">
         <f>J40</f>
-        <v>86.3</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C40" t="s" s="14">
         <f>CONCATENATE(E40," ",F40)</f>
         <v>351</v>
       </c>
-      <c r="D40" t="s" s="17">
+      <c r="D40" t="s" s="14">
         <v>352</v>
       </c>
       <c r="E40" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F40" t="s" s="17">
-        <v>102</v>
-      </c>
-      <c r="G40" t="s" s="17">
-        <v>103</v>
-      </c>
-      <c r="H40" t="s" s="17">
-        <v>102</v>
+        <v>323</v>
+      </c>
+      <c r="F40" t="s" s="14">
+        <v>353</v>
+      </c>
+      <c r="G40" t="s" s="14">
+        <v>354</v>
+      </c>
+      <c r="H40" t="s" s="14">
+        <v>355</v>
       </c>
       <c r="I40" s="18">
-        <v>89.8</v>
-      </c>
-      <c r="J40" s="18">
         <v>86.3</v>
       </c>
+      <c r="J40" s="22">
+        <v>83.59999999999999</v>
+      </c>
       <c r="K40" t="s" s="17">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="L40" s="19"/>
       <c r="M40" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N40" t="s" s="17">
-        <v>354</v>
-      </c>
-      <c r="O40" t="s" s="17">
-        <v>355</v>
-      </c>
-      <c r="P40" s="16"/>
-      <c r="Q40" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="R40" t="s" s="17">
-        <v>356</v>
-      </c>
-      <c r="S40" t="s" s="17">
         <v>357</v>
       </c>
-      <c r="T40" t="s" s="17">
+      <c r="O40" t="s" s="15">
         <v>358</v>
       </c>
-      <c r="U40" t="s" s="17">
+      <c r="P40" t="s" s="17">
         <v>359</v>
       </c>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" t="s" s="14">
+        <v>360</v>
+      </c>
+      <c r="U40" s="17"/>
       <c r="V40" s="17"/>
     </row>
     <row r="41" ht="20.25" customHeight="1">
       <c r="A41" s="13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="13">
         <f>J41</f>
-        <v>23.03</v>
+        <v>86.3</v>
       </c>
       <c r="C41" t="s" s="14">
         <f>CONCATENATE(E41," ",F41)</f>
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D41" t="s" s="17">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E41" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F41" t="s" s="17">
         <v>102</v>
@@ -8004,29 +8028,27 @@
         <v>102</v>
       </c>
       <c r="I41" s="18">
-        <v>66</v>
+        <v>89.8</v>
       </c>
       <c r="J41" s="18">
-        <v>23.03</v>
+        <v>86.3</v>
       </c>
       <c r="K41" t="s" s="17">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L41" s="19"/>
       <c r="M41" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N41" t="s" s="17">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O41" t="s" s="17">
-        <v>363</v>
-      </c>
-      <c r="P41" t="s" s="17">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="P41" s="16"/>
       <c r="Q41" t="s" s="17">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="R41" t="s" s="17">
         <v>366</v>
@@ -8044,21 +8066,21 @@
     </row>
     <row r="42" ht="20.25" customHeight="1">
       <c r="A42" s="13">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="13">
         <f>J42</f>
-        <v>33.9</v>
+        <v>23.03</v>
       </c>
       <c r="C42" t="s" s="14">
         <f>CONCATENATE(E42," ",F42)</f>
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D42" t="s" s="17">
         <v>370</v>
       </c>
       <c r="E42" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F42" t="s" s="17">
         <v>102</v>
@@ -8070,10 +8092,10 @@
         <v>102</v>
       </c>
       <c r="I42" s="18">
-        <v>37.8</v>
+        <v>66</v>
       </c>
       <c r="J42" s="18">
-        <v>33.9</v>
+        <v>23.03</v>
       </c>
       <c r="K42" t="s" s="17">
         <v>371</v>
@@ -8083,114 +8105,114 @@
         <v>32</v>
       </c>
       <c r="N42" t="s" s="17">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s" s="17">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P42" t="s" s="17">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q42" t="s" s="17">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="R42" t="s" s="17">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S42" t="s" s="17">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T42" t="s" s="17">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U42" t="s" s="17">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V42" s="17"/>
     </row>
     <row r="43" ht="20.25" customHeight="1">
       <c r="A43" s="13">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="13">
         <f>J43</f>
-        <v>93.90000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="C43" t="s" s="14">
         <f>CONCATENATE(E43," ",F43)</f>
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="D43" t="s" s="17">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E43" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F43" t="s" s="17">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s" s="17">
         <v>103</v>
       </c>
       <c r="H43" t="s" s="17">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="I43" s="18">
-        <v>100.5</v>
+        <v>37.8</v>
       </c>
       <c r="J43" s="18">
-        <v>93.90000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="K43" t="s" s="17">
-        <v>126</v>
+        <v>381</v>
       </c>
       <c r="L43" s="19"/>
       <c r="M43" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N43" t="s" s="17">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="O43" t="s" s="17">
-        <v>128</v>
-      </c>
-      <c r="P43" s="16"/>
+        <v>382</v>
+      </c>
+      <c r="P43" t="s" s="17">
+        <v>383</v>
+      </c>
       <c r="Q43" t="s" s="17">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="R43" t="s" s="17">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="S43" t="s" s="17">
-        <v>130</v>
+        <v>385</v>
       </c>
       <c r="T43" t="s" s="17">
-        <v>131</v>
+        <v>386</v>
       </c>
       <c r="U43" t="s" s="17">
-        <v>381</v>
-      </c>
-      <c r="V43" t="s" s="33">
-        <v>382</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="V43" s="17"/>
     </row>
     <row r="44" ht="20.25" customHeight="1">
       <c r="A44" s="13">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="13">
         <f>J44</f>
-        <v>66</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C44" t="s" s="14">
         <f>CONCATENATE(E44," ",F44)</f>
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D44" t="s" s="17">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="E44" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F44" t="s" s="17">
         <v>124</v>
@@ -8205,44 +8227,44 @@
         <v>100.5</v>
       </c>
       <c r="J44" s="18">
-        <v>66</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K44" t="s" s="17">
-        <v>384</v>
+        <v>126</v>
       </c>
       <c r="L44" s="19"/>
       <c r="M44" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N44" t="s" s="17">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="O44" t="s" s="17">
-        <v>385</v>
-      </c>
-      <c r="P44" t="s" s="17">
-        <v>386</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="P44" s="16"/>
       <c r="Q44" t="s" s="17">
         <v>129</v>
       </c>
       <c r="R44" t="s" s="17">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="S44" t="s" s="17">
-        <v>388</v>
+        <v>130</v>
       </c>
       <c r="T44" t="s" s="17">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="U44" t="s" s="17">
-        <v>390</v>
-      </c>
-      <c r="V44" s="16"/>
+        <v>391</v>
+      </c>
+      <c r="V44" t="s" s="33">
+        <v>392</v>
+      </c>
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="13">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="13">
         <f>J45</f>
@@ -8250,13 +8272,13 @@
       </c>
       <c r="C45" t="s" s="14">
         <f>CONCATENATE(E45," ",F45)</f>
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D45" t="s" s="17">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E45" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F45" t="s" s="17">
         <v>124</v>
@@ -8267,64 +8289,62 @@
       <c r="H45" t="s" s="17">
         <v>125</v>
       </c>
-      <c r="I45" s="13">
-        <v>72.09999999999999</v>
-      </c>
-      <c r="J45" s="22">
+      <c r="I45" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="J45" s="18">
         <v>66</v>
       </c>
       <c r="K45" t="s" s="17">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="L45" s="19"/>
       <c r="M45" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N45" t="s" s="17">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="O45" t="s" s="17">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="P45" t="s" s="17">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q45" t="s" s="17">
         <v>129</v>
       </c>
       <c r="R45" t="s" s="17">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="S45" t="s" s="17">
-        <v>130</v>
+        <v>398</v>
       </c>
       <c r="T45" t="s" s="17">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="U45" t="s" s="17">
-        <v>397</v>
-      </c>
-      <c r="V45" t="s" s="17">
-        <v>398</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="V45" s="16"/>
     </row>
     <row r="46" ht="20.25" customHeight="1">
       <c r="A46" s="13">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="13">
         <f>J46</f>
-        <v>37.8</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s" s="14">
         <f>CONCATENATE(E46," ",F46)</f>
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D46" t="s" s="17">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E46" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F46" t="s" s="17">
         <v>124</v>
@@ -8335,65 +8355,67 @@
       <c r="H46" t="s" s="17">
         <v>125</v>
       </c>
-      <c r="I46" s="18">
-        <v>47.8</v>
-      </c>
-      <c r="J46" s="30">
-        <v>37.8</v>
+      <c r="I46" s="13">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="J46" s="22">
+        <v>66</v>
       </c>
       <c r="K46" t="s" s="17">
-        <v>87</v>
+        <v>402</v>
       </c>
       <c r="L46" s="19"/>
       <c r="M46" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N46" t="s" s="17">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="O46" t="s" s="17">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="P46" t="s" s="17">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q46" t="s" s="17">
         <v>129</v>
       </c>
       <c r="R46" t="s" s="17">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="S46" t="s" s="17">
-        <v>403</v>
+        <v>130</v>
       </c>
       <c r="T46" t="s" s="17">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="U46" t="s" s="17">
-        <v>405</v>
-      </c>
-      <c r="V46" s="16"/>
+        <v>407</v>
+      </c>
+      <c r="V46" t="s" s="17">
+        <v>408</v>
+      </c>
     </row>
     <row r="47" ht="20.25" customHeight="1">
       <c r="A47" s="13">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="13">
         <f>J47</f>
-        <v>129.4</v>
+        <v>37.8</v>
       </c>
       <c r="C47" t="s" s="14">
         <f>CONCATENATE(E47," ",F47)</f>
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D47" t="s" s="17">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E47" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F47" t="s" s="17">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G47" t="s" s="17">
         <v>103</v>
@@ -8402,61 +8424,61 @@
         <v>125</v>
       </c>
       <c r="I47" s="18">
-        <v>133.9</v>
-      </c>
-      <c r="J47" s="18">
-        <v>129.4</v>
+        <v>47.8</v>
+      </c>
+      <c r="J47" s="30">
+        <v>37.8</v>
       </c>
       <c r="K47" t="s" s="17">
-        <v>408</v>
+        <v>87</v>
       </c>
       <c r="L47" s="19"/>
       <c r="M47" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N47" t="s" s="17">
-        <v>409</v>
+        <v>208</v>
       </c>
       <c r="O47" t="s" s="17">
         <v>410</v>
       </c>
-      <c r="P47" s="16"/>
+      <c r="P47" t="s" s="17">
+        <v>411</v>
+      </c>
       <c r="Q47" t="s" s="17">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="R47" t="s" s="17">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="S47" t="s" s="17">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="T47" t="s" s="17">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="U47" t="s" s="17">
-        <v>414</v>
-      </c>
-      <c r="V47" t="s" s="17">
         <v>415</v>
       </c>
+      <c r="V47" s="16"/>
     </row>
-    <row r="48" ht="20.5" customHeight="1">
+    <row r="48" ht="20.25" customHeight="1">
       <c r="A48" s="13">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="13">
         <f>J48</f>
-        <v>23.03</v>
+        <v>129.4</v>
       </c>
       <c r="C48" t="s" s="14">
         <f>CONCATENATE(E48," ",F48)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D48" t="s" s="17">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E48" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F48" t="s" s="17">
         <v>125</v>
@@ -8468,63 +8490,61 @@
         <v>125</v>
       </c>
       <c r="I48" s="18">
-        <v>27.82</v>
+        <v>133.9</v>
       </c>
       <c r="J48" s="18">
-        <v>23.03</v>
+        <v>129.4</v>
       </c>
       <c r="K48" t="s" s="17">
-        <v>31</v>
+        <v>418</v>
       </c>
       <c r="L48" s="19"/>
       <c r="M48" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N48" t="s" s="17">
-        <v>33</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="P48" t="s" s="17">
-        <v>35</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="P48" s="16"/>
       <c r="Q48" t="s" s="17">
         <v>36</v>
       </c>
       <c r="R48" t="s" s="17">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S48" t="s" s="17">
-        <v>38</v>
+        <v>422</v>
       </c>
       <c r="T48" t="s" s="17">
-        <v>39</v>
+        <v>423</v>
       </c>
       <c r="U48" t="s" s="17">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="V48" t="s" s="17">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="49" ht="20.25" customHeight="1">
+    <row r="49" ht="20.5" customHeight="1">
       <c r="A49" s="13">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="13">
         <f>J49</f>
-        <v>125</v>
+        <v>23.03</v>
       </c>
       <c r="C49" t="s" s="14">
         <f>CONCATENATE(E49," ",F49)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D49" t="s" s="17">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="E49" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s" s="17">
         <v>125</v>
@@ -8536,45 +8556,49 @@
         <v>125</v>
       </c>
       <c r="I49" s="18">
-        <v>129.4</v>
+        <v>27.82</v>
       </c>
       <c r="J49" s="18">
-        <v>125</v>
+        <v>23.03</v>
       </c>
       <c r="K49" t="s" s="17">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="L49" s="19"/>
       <c r="M49" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N49" t="s" s="17">
-        <v>421</v>
+        <v>33</v>
       </c>
       <c r="O49" t="s" s="17">
-        <v>422</v>
+        <v>34</v>
       </c>
       <c r="P49" t="s" s="17">
-        <v>423</v>
+        <v>35</v>
       </c>
       <c r="Q49" t="s" s="17">
-        <v>424</v>
+        <v>36</v>
       </c>
       <c r="R49" t="s" s="17">
+        <v>427</v>
+      </c>
+      <c r="S49" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="T49" t="s" s="17">
+        <v>39</v>
+      </c>
+      <c r="U49" t="s" s="17">
+        <v>428</v>
+      </c>
+      <c r="V49" t="s" s="17">
         <v>425</v>
       </c>
-      <c r="S49" t="s" s="17">
-        <v>75</v>
-      </c>
-      <c r="T49" t="s" s="17">
-        <v>426</v>
-      </c>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
     </row>
     <row r="50" ht="20.25" customHeight="1">
       <c r="A50" s="13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="13">
         <f>J50</f>
@@ -8582,13 +8606,13 @@
       </c>
       <c r="C50" t="s" s="14">
         <f>CONCATENATE(E50," ",F50)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D50" t="s" s="17">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E50" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F50" t="s" s="17">
         <v>125</v>
@@ -8606,57 +8630,53 @@
         <v>125</v>
       </c>
       <c r="K50" t="s" s="17">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L50" s="19"/>
       <c r="M50" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N50" t="s" s="17">
-        <v>33</v>
+        <v>431</v>
       </c>
       <c r="O50" t="s" s="17">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P50" t="s" s="17">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q50" t="s" s="17">
-        <v>146</v>
+        <v>434</v>
       </c>
       <c r="R50" t="s" s="17">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="S50" t="s" s="17">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T50" t="s" s="17">
-        <v>432</v>
-      </c>
-      <c r="U50" t="s" s="17">
-        <v>433</v>
-      </c>
-      <c r="V50" t="s" s="17">
-        <v>434</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
     </row>
     <row r="51" ht="20.25" customHeight="1">
       <c r="A51" s="13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="13">
         <f>J51</f>
-        <v>129.4</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s" s="14">
         <f>CONCATENATE(E51," ",F51)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D51" t="s" s="17">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E51" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F51" t="s" s="17">
         <v>125</v>
@@ -8668,61 +8688,63 @@
         <v>125</v>
       </c>
       <c r="I51" s="18">
-        <v>133.9</v>
+        <v>129.4</v>
       </c>
       <c r="J51" s="18">
-        <v>129.4</v>
+        <v>125</v>
       </c>
       <c r="K51" t="s" s="17">
-        <v>408</v>
+        <v>438</v>
       </c>
       <c r="L51" s="19"/>
       <c r="M51" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N51" t="s" s="17">
-        <v>409</v>
+        <v>33</v>
       </c>
       <c r="O51" t="s" s="17">
-        <v>410</v>
-      </c>
-      <c r="P51" s="16"/>
+        <v>439</v>
+      </c>
+      <c r="P51" t="s" s="17">
+        <v>440</v>
+      </c>
       <c r="Q51" t="s" s="17">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="R51" t="s" s="17">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="S51" t="s" s="17">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="T51" t="s" s="17">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="U51" t="s" s="17">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="V51" t="s" s="17">
-        <v>415</v>
+        <v>444</v>
       </c>
     </row>
     <row r="52" ht="20.25" customHeight="1">
       <c r="A52" s="13">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="13">
         <f>J52</f>
-        <v>125</v>
+        <v>129.4</v>
       </c>
       <c r="C52" t="s" s="14">
         <f>CONCATENATE(E52," ",F52)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D52" t="s" s="17">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="E52" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F52" t="s" s="17">
         <v>125</v>
@@ -8734,61 +8756,61 @@
         <v>125</v>
       </c>
       <c r="I52" s="18">
+        <v>133.9</v>
+      </c>
+      <c r="J52" s="18">
         <v>129.4</v>
       </c>
-      <c r="J52" s="18">
-        <v>125</v>
-      </c>
       <c r="K52" t="s" s="17">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="L52" s="19"/>
       <c r="M52" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N52" t="s" s="17">
-        <v>354</v>
+        <v>419</v>
       </c>
       <c r="O52" t="s" s="17">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="P52" s="16"/>
       <c r="Q52" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="R52" s="18">
-        <v>1005</v>
+      <c r="R52" t="s" s="17">
+        <v>446</v>
       </c>
       <c r="S52" t="s" s="17">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="T52" t="s" s="17">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="U52" t="s" s="17">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="V52" t="s" s="17">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" ht="20.25" customHeight="1">
       <c r="A53" s="13">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="13">
         <f>J53</f>
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C53" t="s" s="14">
         <f>CONCATENATE(E53," ",F53)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D53" t="s" s="17">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="E53" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F53" t="s" s="17">
         <v>125</v>
@@ -8800,59 +8822,61 @@
         <v>125</v>
       </c>
       <c r="I53" s="18">
-        <v>145</v>
+        <v>129.4</v>
       </c>
       <c r="J53" s="18">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s" s="17">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="L53" s="19"/>
       <c r="M53" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N53" t="s" s="17">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="O53" t="s" s="17">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P53" s="16"/>
       <c r="Q53" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="R53" s="16"/>
+      <c r="R53" s="18">
+        <v>1005</v>
+      </c>
       <c r="S53" t="s" s="17">
-        <v>412</v>
+        <v>451</v>
       </c>
       <c r="T53" t="s" s="17">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="U53" t="s" s="17">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="V53" t="s" s="17">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" ht="20.25" customHeight="1">
       <c r="A54" s="13">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="13">
         <f>J54</f>
-        <v>83.59999999999999</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s" s="14">
         <f>CONCATENATE(E54," ",F54)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D54" t="s" s="17">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E54" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F54" t="s" s="17">
         <v>125</v>
@@ -8864,63 +8888,59 @@
         <v>125</v>
       </c>
       <c r="I54" s="18">
-        <v>86.3</v>
-      </c>
-      <c r="J54" s="22">
-        <v>83.59999999999999</v>
+        <v>145</v>
+      </c>
+      <c r="J54" s="18">
+        <v>66</v>
       </c>
       <c r="K54" t="s" s="17">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="L54" s="19"/>
       <c r="M54" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N54" t="s" s="17">
-        <v>354</v>
+        <v>454</v>
       </c>
       <c r="O54" t="s" s="17">
-        <v>448</v>
-      </c>
-      <c r="P54" t="s" s="17">
-        <v>449</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="P54" s="16"/>
       <c r="Q54" t="s" s="17">
         <v>36</v>
       </c>
-      <c r="R54" t="s" s="17">
-        <v>450</v>
-      </c>
+      <c r="R54" s="16"/>
       <c r="S54" t="s" s="17">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="T54" t="s" s="17">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="U54" t="s" s="17">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="V54" t="s" s="17">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="55" ht="20.25" customHeight="1">
       <c r="A55" s="13">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="13">
         <f>J55</f>
-        <v>2.58</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C55" t="s" s="14">
         <f>CONCATENATE(E55," ",F55)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D55" t="s" s="17">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="E55" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F55" t="s" s="17">
         <v>125</v>
@@ -8932,63 +8952,63 @@
         <v>125</v>
       </c>
       <c r="I55" s="18">
-        <v>23.03</v>
-      </c>
-      <c r="J55" s="18">
-        <v>2.58</v>
+        <v>86.3</v>
+      </c>
+      <c r="J55" s="22">
+        <v>83.59999999999999</v>
       </c>
       <c r="K55" t="s" s="17">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="L55" s="19"/>
       <c r="M55" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N55" t="s" s="17">
-        <v>454</v>
+        <v>364</v>
       </c>
       <c r="O55" t="s" s="17">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P55" t="s" s="17">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q55" t="s" s="17">
         <v>36</v>
       </c>
       <c r="R55" t="s" s="17">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="S55" t="s" s="17">
-        <v>189</v>
+        <v>461</v>
       </c>
       <c r="T55" t="s" s="17">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="U55" t="s" s="17">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="V55" t="s" s="17">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="56" ht="20.25" customHeight="1">
       <c r="A56" s="13">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="13">
         <f>J56</f>
-        <v>93.90000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="C56" t="s" s="14">
         <f>CONCATENATE(E56," ",F56)</f>
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="D56" t="s" s="17">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E56" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F56" t="s" s="17">
         <v>125</v>
@@ -9000,121 +9020,131 @@
         <v>125</v>
       </c>
       <c r="I56" s="18">
-        <v>100.5</v>
+        <v>23.03</v>
       </c>
       <c r="J56" s="18">
-        <v>93.90000000000001</v>
+        <v>2.58</v>
       </c>
       <c r="K56" t="s" s="17">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="L56" s="19"/>
       <c r="M56" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N56" t="s" s="17">
-        <v>243</v>
+        <v>464</v>
       </c>
       <c r="O56" t="s" s="17">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="P56" t="s" s="17">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="Q56" t="s" s="17">
-        <v>463</v>
+        <v>36</v>
       </c>
       <c r="R56" t="s" s="17">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="S56" t="s" s="17">
-        <v>465</v>
+        <v>189</v>
       </c>
       <c r="T56" t="s" s="17">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="U56" t="s" s="17">
-        <v>467</v>
+        <v>428</v>
       </c>
       <c r="V56" t="s" s="17">
-        <v>468</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" ht="20.25" customHeight="1">
       <c r="A57" s="13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="13">
         <f>J57</f>
-        <v>174.1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C57" t="s" s="14">
         <f>CONCATENATE(E57," ",F57)</f>
+        <v>416</v>
+      </c>
+      <c r="D57" t="s" s="17">
         <v>469</v>
       </c>
-      <c r="D57" t="s" s="17">
-        <v>470</v>
-      </c>
       <c r="E57" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F57" t="s" s="17">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="G57" t="s" s="17">
         <v>103</v>
       </c>
-      <c r="H57" s="16"/>
+      <c r="H57" t="s" s="17">
+        <v>125</v>
+      </c>
       <c r="I57" s="18">
-        <v>201.3</v>
+        <v>100.5</v>
       </c>
       <c r="J57" s="18">
-        <v>174.1</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K57" t="s" s="17">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="L57" s="19"/>
       <c r="M57" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N57" t="s" s="17">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="O57" t="s" s="17">
+        <v>471</v>
+      </c>
+      <c r="P57" t="s" s="17">
         <v>472</v>
       </c>
-      <c r="P57" s="16"/>
       <c r="Q57" t="s" s="17">
-        <v>146</v>
+        <v>473</v>
       </c>
       <c r="R57" t="s" s="17">
-        <v>473</v>
-      </c>
-      <c r="S57" s="16"/>
+        <v>474</v>
+      </c>
+      <c r="S57" t="s" s="17">
+        <v>475</v>
+      </c>
       <c r="T57" t="s" s="17">
-        <v>474</v>
-      </c>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
+        <v>476</v>
+      </c>
+      <c r="U57" t="s" s="17">
+        <v>477</v>
+      </c>
+      <c r="V57" t="s" s="17">
+        <v>478</v>
+      </c>
     </row>
     <row r="58" ht="20.25" customHeight="1">
       <c r="A58" s="13">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="13">
         <f>J58</f>
-        <v>125</v>
+        <v>174.1</v>
       </c>
       <c r="C58" t="s" s="14">
         <f>CONCATENATE(E58," ",F58)</f>
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D58" t="s" s="17">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="E58" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F58" t="s" s="17">
         <v>103</v>
@@ -9122,63 +9152,57 @@
       <c r="G58" t="s" s="17">
         <v>103</v>
       </c>
-      <c r="H58" s="17"/>
+      <c r="H58" s="16"/>
       <c r="I58" s="18">
-        <v>129.4</v>
+        <v>201.3</v>
       </c>
       <c r="J58" s="18">
-        <v>125</v>
+        <v>174.1</v>
       </c>
       <c r="K58" t="s" s="17">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L58" s="19"/>
       <c r="M58" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N58" t="s" s="17">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="O58" t="s" s="17">
-        <v>476</v>
-      </c>
-      <c r="P58" t="s" s="17">
-        <v>477</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="P58" s="16"/>
       <c r="Q58" t="s" s="17">
-        <v>478</v>
+        <v>146</v>
       </c>
       <c r="R58" t="s" s="17">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="S58" s="16"/>
       <c r="T58" t="s" s="17">
-        <v>480</v>
-      </c>
-      <c r="U58" t="s" s="17">
-        <v>481</v>
-      </c>
-      <c r="V58" t="s" s="17">
-        <v>482</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
     </row>
     <row r="59" ht="20.25" customHeight="1">
       <c r="A59" s="13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="13">
         <f>J59</f>
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s" s="14">
         <f>CONCATENATE(E59," ",F59)</f>
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="D59" t="s" s="17">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E59" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F59" t="s" s="17">
         <v>103</v>
@@ -9188,1054 +9212,1052 @@
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="18">
+        <v>129.4</v>
+      </c>
+      <c r="J59" s="18">
         <v>125</v>
       </c>
-      <c r="J59" s="18">
-        <v>113</v>
-      </c>
       <c r="K59" t="s" s="17">
-        <v>286</v>
+        <v>430</v>
       </c>
       <c r="L59" s="19"/>
       <c r="M59" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N59" t="s" s="17">
-        <v>208</v>
+        <v>71</v>
       </c>
       <c r="O59" t="s" s="17">
-        <v>288</v>
+        <v>486</v>
       </c>
       <c r="P59" t="s" s="17">
-        <v>289</v>
+        <v>487</v>
       </c>
       <c r="Q59" t="s" s="17">
-        <v>36</v>
+        <v>488</v>
       </c>
       <c r="R59" t="s" s="17">
-        <v>484</v>
-      </c>
-      <c r="S59" t="s" s="17">
-        <v>38</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="S59" s="16"/>
       <c r="T59" t="s" s="17">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="U59" t="s" s="17">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="V59" t="s" s="17">
-        <v>415</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" ht="20.25" customHeight="1">
       <c r="A60" s="13">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="13">
         <f>J60</f>
-        <v>33.9</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s" s="14">
         <f>CONCATENATE(E60," ",F60)</f>
-        <v>487</v>
-      </c>
-      <c r="D60" t="s" s="45">
-        <v>488</v>
+        <v>479</v>
+      </c>
+      <c r="D60" t="s" s="17">
+        <v>493</v>
       </c>
       <c r="E60" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F60" t="s" s="27">
-        <v>489</v>
+        <v>323</v>
+      </c>
+      <c r="F60" t="s" s="17">
+        <v>103</v>
       </c>
       <c r="G60" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s" s="27">
-        <v>304</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H60" s="17"/>
       <c r="I60" s="18">
-        <v>56</v>
-      </c>
-      <c r="J60" s="30">
-        <v>33.9</v>
+        <v>125</v>
+      </c>
+      <c r="J60" s="18">
+        <v>113</v>
       </c>
       <c r="K60" t="s" s="17">
-        <v>490</v>
+        <v>296</v>
       </c>
       <c r="L60" s="19"/>
-      <c r="M60" t="s" s="26">
+      <c r="M60" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N60" t="s" s="27">
-        <v>243</v>
-      </c>
-      <c r="O60" t="s" s="15">
-        <v>491</v>
-      </c>
-      <c r="P60" t="s" s="15">
-        <v>492</v>
-      </c>
-      <c r="Q60" s="29"/>
-      <c r="R60" t="s" s="15">
-        <v>493</v>
+      <c r="N60" t="s" s="17">
+        <v>208</v>
+      </c>
+      <c r="O60" t="s" s="17">
+        <v>298</v>
+      </c>
+      <c r="P60" t="s" s="17">
+        <v>299</v>
+      </c>
+      <c r="Q60" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="R60" t="s" s="17">
+        <v>494</v>
       </c>
       <c r="S60" t="s" s="17">
-        <v>272</v>
+        <v>38</v>
       </c>
       <c r="T60" t="s" s="17">
-        <v>494</v>
-      </c>
-      <c r="U60" s="16"/>
-      <c r="V60" t="s" s="27">
         <v>495</v>
+      </c>
+      <c r="U60" t="s" s="17">
+        <v>496</v>
+      </c>
+      <c r="V60" t="s" s="17">
+        <v>425</v>
       </c>
     </row>
     <row r="61" ht="20.25" customHeight="1">
       <c r="A61" s="13">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="13">
         <f>J61</f>
-        <v>93.90000000000001</v>
+        <v>33.9</v>
       </c>
       <c r="C61" t="s" s="14">
         <f>CONCATENATE(E61," ",F61)</f>
-        <v>496</v>
-      </c>
-      <c r="D61" t="s" s="46">
         <v>497</v>
       </c>
+      <c r="D61" t="s" s="45">
+        <v>498</v>
+      </c>
       <c r="E61" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F61" t="s" s="17">
-        <v>498</v>
+        <v>323</v>
+      </c>
+      <c r="F61" t="s" s="27">
+        <v>499</v>
       </c>
       <c r="G61" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="H61" t="s" s="17">
-        <v>498</v>
+      <c r="H61" t="s" s="27">
+        <v>314</v>
       </c>
       <c r="I61" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="J61" s="18">
-        <v>93.90000000000001</v>
+        <v>56</v>
+      </c>
+      <c r="J61" s="30">
+        <v>33.9</v>
       </c>
       <c r="K61" t="s" s="17">
-        <v>499</v>
-      </c>
-      <c r="L61" t="s" s="17">
         <v>500</v>
       </c>
-      <c r="M61" t="s" s="20">
+      <c r="L61" s="19"/>
+      <c r="M61" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N61" t="s" s="17">
+      <c r="N61" t="s" s="27">
+        <v>220</v>
+      </c>
+      <c r="O61" t="s" s="15">
         <v>501</v>
       </c>
-      <c r="O61" t="s" s="28">
+      <c r="P61" t="s" s="15">
         <v>502</v>
       </c>
-      <c r="P61" t="s" s="25">
+      <c r="Q61" s="29"/>
+      <c r="R61" t="s" s="15">
         <v>503</v>
       </c>
-      <c r="Q61" s="16"/>
-      <c r="R61" t="s" s="25">
+      <c r="S61" t="s" s="17">
+        <v>282</v>
+      </c>
+      <c r="T61" t="s" s="17">
         <v>504</v>
       </c>
-      <c r="S61" s="16"/>
-      <c r="T61" t="s" s="17">
+      <c r="U61" s="16"/>
+      <c r="V61" t="s" s="27">
         <v>505</v>
       </c>
-      <c r="U61" s="17"/>
-      <c r="V61" s="17"/>
     </row>
     <row r="62" ht="20.25" customHeight="1">
       <c r="A62" s="13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="13">
         <f>J62</f>
-        <v>113</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C62" t="s" s="14">
         <f>CONCATENATE(E62," ",F62)</f>
         <v>506</v>
       </c>
-      <c r="D62" t="s" s="17">
+      <c r="D62" t="s" s="46">
         <v>507</v>
       </c>
       <c r="E62" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s" s="17">
-        <v>206</v>
+        <v>508</v>
       </c>
       <c r="G62" t="s" s="17">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="H62" t="s" s="17">
-        <v>206</v>
+        <v>508</v>
       </c>
       <c r="I62" s="18">
-        <v>125</v>
+        <v>100.5</v>
       </c>
       <c r="J62" s="18">
-        <v>113</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K62" t="s" s="17">
-        <v>508</v>
-      </c>
-      <c r="L62" s="19"/>
+        <v>509</v>
+      </c>
+      <c r="L62" t="s" s="17">
+        <v>510</v>
+      </c>
       <c r="M62" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N62" t="s" s="17">
-        <v>509</v>
-      </c>
-      <c r="O62" t="s" s="17">
-        <v>510</v>
-      </c>
-      <c r="P62" t="s" s="17">
         <v>511</v>
       </c>
-      <c r="Q62" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="R62" t="s" s="17">
+      <c r="O62" t="s" s="28">
         <v>512</v>
       </c>
-      <c r="S62" t="s" s="17">
+      <c r="P62" t="s" s="25">
         <v>513</v>
       </c>
+      <c r="Q62" s="16"/>
+      <c r="R62" t="s" s="25">
+        <v>514</v>
+      </c>
+      <c r="S62" s="16"/>
       <c r="T62" t="s" s="17">
-        <v>514</v>
-      </c>
-      <c r="U62" t="s" s="17">
         <v>515</v>
       </c>
+      <c r="U62" s="17"/>
       <c r="V62" s="17"/>
     </row>
     <row r="63" ht="20.25" customHeight="1">
       <c r="A63" s="13">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="13">
         <f>J63</f>
-        <v>7.246</v>
+        <v>113</v>
       </c>
       <c r="C63" t="s" s="14">
         <f>CONCATENATE(E63," ",F63)</f>
         <v>516</v>
       </c>
-      <c r="D63" t="s" s="34">
+      <c r="D63" t="s" s="17">
         <v>517</v>
       </c>
       <c r="E63" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F63" t="s" s="17">
+        <v>206</v>
+      </c>
+      <c r="G63" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="H63" t="s" s="17">
+        <v>206</v>
+      </c>
+      <c r="I63" s="18">
+        <v>125</v>
+      </c>
+      <c r="J63" s="18">
+        <v>113</v>
+      </c>
+      <c r="K63" t="s" s="17">
         <v>518</v>
-      </c>
-      <c r="G63" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="H63" t="s" s="17">
-        <v>58</v>
-      </c>
-      <c r="I63" s="18">
-        <v>11.63</v>
-      </c>
-      <c r="J63" s="18">
-        <v>7.246</v>
-      </c>
-      <c r="K63" t="s" s="17">
-        <v>519</v>
       </c>
       <c r="L63" s="19"/>
       <c r="M63" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N63" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O63" t="s" s="34">
+        <v>519</v>
+      </c>
+      <c r="O63" t="s" s="17">
         <v>520</v>
       </c>
-      <c r="P63" t="s" s="34">
+      <c r="P63" t="s" s="17">
         <v>521</v>
       </c>
-      <c r="Q63" s="17"/>
-      <c r="R63" t="s" s="34">
+      <c r="Q63" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="R63" t="s" s="17">
         <v>522</v>
       </c>
-      <c r="S63" t="s" s="34">
+      <c r="S63" t="s" s="17">
         <v>523</v>
       </c>
       <c r="T63" t="s" s="17">
         <v>524</v>
       </c>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
+      <c r="U63" t="s" s="17">
+        <v>525</v>
+      </c>
+      <c r="V63" s="17"/>
     </row>
     <row r="64" ht="20.25" customHeight="1">
       <c r="A64" s="13">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="13">
         <f>J64</f>
-        <v>20.44</v>
+        <v>7.246</v>
       </c>
       <c r="C64" t="s" s="14">
         <f>CONCATENATE(E64," ",F64)</f>
-        <v>525</v>
-      </c>
-      <c r="D64" t="s" s="38">
         <v>526</v>
       </c>
+      <c r="D64" t="s" s="34">
+        <v>527</v>
+      </c>
       <c r="E64" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F64" t="s" s="17">
-        <v>527</v>
+        <v>218</v>
       </c>
       <c r="G64" t="s" s="17">
         <v>30</v>
       </c>
       <c r="H64" t="s" s="17">
+        <v>58</v>
+      </c>
+      <c r="I64" s="18">
+        <v>11.63</v>
+      </c>
+      <c r="J64" s="18">
+        <v>7.246</v>
+      </c>
+      <c r="K64" t="s" s="17">
         <v>528</v>
-      </c>
-      <c r="I64" s="18">
-        <v>23.03</v>
-      </c>
-      <c r="J64" s="18">
-        <v>20.44</v>
-      </c>
-      <c r="K64" t="s" s="17">
-        <v>196</v>
       </c>
       <c r="L64" s="19"/>
       <c r="M64" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N64" t="s" s="17">
-        <v>297</v>
-      </c>
-      <c r="O64" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="O64" t="s" s="34">
         <v>529</v>
       </c>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" t="s" s="15">
+      <c r="P64" t="s" s="34">
         <v>530</v>
       </c>
-      <c r="S64" t="s" s="28">
+      <c r="Q64" s="17"/>
+      <c r="R64" t="s" s="34">
         <v>531</v>
       </c>
+      <c r="S64" t="s" s="34">
+        <v>532</v>
+      </c>
       <c r="T64" t="s" s="17">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="U64" s="16"/>
       <c r="V64" s="16"/>
     </row>
     <row r="65" ht="20.25" customHeight="1">
       <c r="A65" s="13">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="13">
         <f>J65</f>
-        <v>346.7</v>
+        <v>20.44</v>
       </c>
       <c r="C65" t="s" s="14">
         <f>CONCATENATE(E65," ",F65)</f>
-        <v>533</v>
-      </c>
-      <c r="D65" t="s" s="14">
         <v>534</v>
       </c>
+      <c r="D65" t="s" s="38">
+        <v>535</v>
+      </c>
       <c r="E65" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F65" t="s" s="14">
-        <v>229</v>
-      </c>
-      <c r="G65" t="s" s="14">
-        <v>229</v>
-      </c>
-      <c r="H65" s="21"/>
+        <v>323</v>
+      </c>
+      <c r="F65" t="s" s="17">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="H65" t="s" s="17">
+        <v>537</v>
+      </c>
       <c r="I65" s="18">
-        <v>358.9</v>
-      </c>
-      <c r="J65" s="22">
-        <v>346.7</v>
+        <v>23.03</v>
+      </c>
+      <c r="J65" s="18">
+        <v>20.44</v>
       </c>
       <c r="K65" t="s" s="17">
-        <v>535</v>
+        <v>196</v>
       </c>
       <c r="L65" s="19"/>
       <c r="M65" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N65" t="s" s="17">
-        <v>185</v>
-      </c>
-      <c r="O65" t="s" s="25">
-        <v>536</v>
-      </c>
-      <c r="P65" s="47"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" t="s" s="17">
-        <v>537</v>
-      </c>
-      <c r="S65" s="16"/>
-      <c r="T65" t="s" s="14">
+        <v>307</v>
+      </c>
+      <c r="O65" t="s" s="15">
         <v>538</v>
+      </c>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" t="s" s="15">
+        <v>539</v>
+      </c>
+      <c r="S65" t="s" s="28">
+        <v>540</v>
+      </c>
+      <c r="T65" t="s" s="17">
+        <v>541</v>
       </c>
       <c r="U65" s="16"/>
       <c r="V65" s="16"/>
     </row>
     <row r="66" ht="20.25" customHeight="1">
       <c r="A66" s="13">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="13">
         <f>J66</f>
-        <v>272.95</v>
+        <v>346.7</v>
       </c>
       <c r="C66" t="s" s="14">
         <f>CONCATENATE(E66," ",F66)</f>
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D66" t="s" s="14">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E66" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F66" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G66" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H66" s="21"/>
       <c r="I66" s="18">
-        <v>298.9</v>
+        <v>358.9</v>
       </c>
       <c r="J66" s="22">
-        <v>272.95</v>
+        <v>346.7</v>
       </c>
       <c r="K66" t="s" s="17">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="L66" s="19"/>
       <c r="M66" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N66" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="O66" t="s" s="48">
-        <v>541</v>
-      </c>
-      <c r="P66" t="s" s="48">
-        <v>542</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="O66" t="s" s="25">
+        <v>545</v>
+      </c>
+      <c r="P66" s="47"/>
       <c r="Q66" s="29"/>
       <c r="R66" t="s" s="17">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="S66" s="16"/>
       <c r="T66" t="s" s="14">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="U66" s="16"/>
-      <c r="V66" t="s" s="14">
-        <v>545</v>
-      </c>
+      <c r="V66" s="16"/>
     </row>
     <row r="67" ht="20.25" customHeight="1">
       <c r="A67" s="13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="13">
         <f>J67</f>
-        <v>298.9</v>
+        <v>272.95</v>
       </c>
       <c r="C67" t="s" s="14">
         <f>CONCATENATE(E67," ",F67)</f>
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D67" t="s" s="14">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E67" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F67" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G67" t="s" s="14">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="H67" s="21"/>
       <c r="I67" s="18">
-        <v>323.2</v>
+        <v>298.9</v>
       </c>
       <c r="J67" s="22">
-        <v>298.9</v>
+        <v>272.95</v>
       </c>
       <c r="K67" t="s" s="17">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L67" s="19"/>
       <c r="M67" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N67" t="s" s="17">
-        <v>548</v>
-      </c>
-      <c r="O67" t="s" s="25">
-        <v>549</v>
-      </c>
-      <c r="P67" s="47"/>
+        <v>71</v>
+      </c>
+      <c r="O67" t="s" s="48">
+        <v>550</v>
+      </c>
+      <c r="P67" t="s" s="48">
+        <v>551</v>
+      </c>
       <c r="Q67" s="29"/>
-      <c r="R67" t="s" s="49">
-        <v>550</v>
-      </c>
-      <c r="S67" s="50"/>
+      <c r="R67" t="s" s="17">
+        <v>552</v>
+      </c>
+      <c r="S67" s="16"/>
       <c r="T67" t="s" s="14">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="U67" s="16"/>
       <c r="V67" t="s" s="14">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" ht="20.25" customHeight="1">
       <c r="A68" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="13">
         <f>J68</f>
-        <v>100.5</v>
+        <v>298.9</v>
       </c>
       <c r="C68" t="s" s="14">
         <f>CONCATENATE(E68," ",F68)</f>
-        <v>553</v>
-      </c>
-      <c r="D68" t="s" s="27">
-        <v>554</v>
+        <v>542</v>
+      </c>
+      <c r="D68" t="s" s="14">
+        <v>555</v>
       </c>
       <c r="E68" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F68" t="s" s="17">
-        <v>555</v>
+        <v>323</v>
+      </c>
+      <c r="F68" t="s" s="14">
+        <v>240</v>
       </c>
       <c r="G68" t="s" s="14">
+        <v>240</v>
+      </c>
+      <c r="H68" s="21"/>
+      <c r="I68" s="18">
+        <v>323.2</v>
+      </c>
+      <c r="J68" s="22">
+        <v>298.9</v>
+      </c>
+      <c r="K68" t="s" s="17">
         <v>556</v>
       </c>
-      <c r="H68" t="s" s="17">
+      <c r="L68" s="19"/>
+      <c r="M68" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="N68" t="s" s="17">
         <v>557</v>
       </c>
-      <c r="I68" s="18">
-        <v>113</v>
-      </c>
-      <c r="J68" s="30">
-        <v>100.5</v>
-      </c>
-      <c r="K68" t="s" s="17">
+      <c r="O68" t="s" s="25">
         <v>558</v>
       </c>
-      <c r="L68" s="19"/>
-      <c r="M68" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="N68" t="s" s="27">
-        <v>185</v>
-      </c>
-      <c r="O68" t="s" s="15">
+      <c r="P68" s="47"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" t="s" s="49">
         <v>559</v>
       </c>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" t="s" s="15">
+      <c r="S68" s="50"/>
+      <c r="T68" t="s" s="14">
         <v>560</v>
       </c>
-      <c r="S68" t="s" s="17">
+      <c r="U68" s="16"/>
+      <c r="V68" t="s" s="14">
         <v>561</v>
       </c>
-      <c r="T68" t="s" s="17">
-        <v>562</v>
-      </c>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
     </row>
     <row r="69" ht="20.25" customHeight="1">
       <c r="A69" s="13">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="13">
         <f>J69</f>
-        <v>272.95</v>
+        <v>100.5</v>
       </c>
       <c r="C69" t="s" s="14">
         <f>CONCATENATE(E69," ",F69)</f>
+        <v>562</v>
+      </c>
+      <c r="D69" t="s" s="27">
         <v>563</v>
       </c>
-      <c r="D69" t="s" s="14">
+      <c r="E69" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F69" t="s" s="17">
         <v>564</v>
       </c>
-      <c r="E69" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F69" t="s" s="14">
-        <v>557</v>
-      </c>
       <c r="G69" t="s" s="14">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H69" t="s" s="17">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I69" s="18">
-        <v>283.5</v>
-      </c>
-      <c r="J69" s="22">
-        <v>272.95</v>
+        <v>113</v>
+      </c>
+      <c r="J69" s="30">
+        <v>100.5</v>
       </c>
       <c r="K69" t="s" s="17">
-        <v>565</v>
-      </c>
-      <c r="L69" s="16"/>
-      <c r="M69" t="s" s="20">
+        <v>567</v>
+      </c>
+      <c r="L69" s="19"/>
+      <c r="M69" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N69" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O69" t="s" s="17">
-        <v>566</v>
-      </c>
-      <c r="P69" t="s" s="17">
-        <v>567</v>
-      </c>
-      <c r="Q69" s="17"/>
-      <c r="R69" t="s" s="17">
+      <c r="N69" t="s" s="27">
+        <v>185</v>
+      </c>
+      <c r="O69" t="s" s="15">
         <v>568</v>
       </c>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" t="s" s="15">
+        <v>569</v>
+      </c>
       <c r="S69" t="s" s="17">
-        <v>569</v>
-      </c>
-      <c r="T69" t="s" s="14">
         <v>570</v>
       </c>
-      <c r="U69" t="s" s="17">
+      <c r="T69" t="s" s="17">
         <v>571</v>
       </c>
+      <c r="U69" s="16"/>
       <c r="V69" s="16"/>
     </row>
     <row r="70" ht="20.25" customHeight="1">
       <c r="A70" s="13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="13">
         <f>J70</f>
-        <v>145</v>
+        <v>272.95</v>
       </c>
       <c r="C70" t="s" s="14">
         <f>CONCATENATE(E70," ",F70)</f>
         <v>572</v>
       </c>
-      <c r="D70" t="s" s="34">
+      <c r="D70" t="s" s="14">
         <v>573</v>
       </c>
       <c r="E70" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F70" t="s" s="17">
-        <v>557</v>
+        <v>323</v>
+      </c>
+      <c r="F70" t="s" s="14">
+        <v>566</v>
       </c>
       <c r="G70" t="s" s="14">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="H70" t="s" s="17">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="I70" s="18">
-        <v>163.5</v>
-      </c>
-      <c r="J70" s="18">
-        <v>145</v>
+        <v>283.5</v>
+      </c>
+      <c r="J70" s="22">
+        <v>272.95</v>
       </c>
       <c r="K70" t="s" s="17">
         <v>574</v>
       </c>
-      <c r="L70" s="19"/>
+      <c r="L70" s="16"/>
       <c r="M70" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N70" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O70" t="s" s="34">
+        <v>220</v>
+      </c>
+      <c r="O70" t="s" s="17">
         <v>575</v>
       </c>
-      <c r="P70" t="s" s="34">
+      <c r="P70" t="s" s="17">
         <v>576</v>
       </c>
-      <c r="Q70" s="16"/>
-      <c r="R70" t="s" s="34">
+      <c r="Q70" s="17"/>
+      <c r="R70" t="s" s="17">
         <v>577</v>
       </c>
-      <c r="S70" t="s" s="34">
+      <c r="S70" t="s" s="17">
         <v>578</v>
       </c>
-      <c r="T70" t="s" s="17">
+      <c r="T70" t="s" s="14">
         <v>579</v>
       </c>
-      <c r="U70" s="16"/>
+      <c r="U70" t="s" s="17">
+        <v>580</v>
+      </c>
       <c r="V70" s="16"/>
     </row>
     <row r="71" ht="20.25" customHeight="1">
       <c r="A71" s="13">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="13">
         <f>J71</f>
-        <v>7.246</v>
+        <v>145</v>
       </c>
       <c r="C71" t="s" s="14">
         <f>CONCATENATE(E71," ",F71)</f>
-        <v>580</v>
-      </c>
-      <c r="D71" t="s" s="38">
         <v>581</v>
       </c>
+      <c r="D71" t="s" s="34">
+        <v>582</v>
+      </c>
       <c r="E71" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F71" t="s" s="17">
-        <v>582</v>
-      </c>
-      <c r="G71" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="H71" t="s" s="39">
-        <v>58</v>
+        <v>566</v>
+      </c>
+      <c r="G71" t="s" s="14">
+        <v>565</v>
+      </c>
+      <c r="H71" t="s" s="17">
+        <v>566</v>
       </c>
       <c r="I71" s="18">
-        <v>11.63</v>
+        <v>163.5</v>
       </c>
       <c r="J71" s="18">
-        <v>7.246</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s" s="17">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="L71" s="19"/>
       <c r="M71" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N71" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O71" t="s" s="15">
-        <v>583</v>
-      </c>
-      <c r="P71" t="s" s="15">
+        <v>220</v>
+      </c>
+      <c r="O71" t="s" s="34">
         <v>584</v>
       </c>
-      <c r="Q71" s="17"/>
-      <c r="R71" t="s" s="15">
+      <c r="P71" t="s" s="34">
         <v>585</v>
       </c>
-      <c r="S71" t="s" s="15">
+      <c r="Q71" s="16"/>
+      <c r="R71" t="s" s="34">
         <v>586</v>
       </c>
+      <c r="S71" t="s" s="34">
+        <v>587</v>
+      </c>
       <c r="T71" t="s" s="17">
-        <v>587</v>
-      </c>
-      <c r="U71" s="17"/>
-      <c r="V71" s="17"/>
+        <v>588</v>
+      </c>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
     </row>
     <row r="72" ht="20.25" customHeight="1">
       <c r="A72" s="13">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="13">
         <f>J72</f>
-        <v>227</v>
+        <v>7.246</v>
       </c>
       <c r="C72" t="s" s="14">
         <f>CONCATENATE(E72," ",F72)</f>
-        <v>588</v>
-      </c>
-      <c r="D72" t="s" s="14">
         <v>589</v>
       </c>
+      <c r="D72" t="s" s="38">
+        <v>590</v>
+      </c>
       <c r="E72" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F72" t="s" s="14">
-        <v>590</v>
-      </c>
-      <c r="G72" t="s" s="14">
+        <v>323</v>
+      </c>
+      <c r="F72" t="s" s="17">
         <v>591</v>
       </c>
-      <c r="H72" t="s" s="14">
-        <v>590</v>
-      </c>
-      <c r="I72" s="13">
-        <v>237</v>
-      </c>
-      <c r="J72" s="22">
-        <v>227</v>
-      </c>
-      <c r="K72" t="s" s="23">
-        <v>592</v>
+      <c r="G72" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s" s="39">
+        <v>58</v>
+      </c>
+      <c r="I72" s="18">
+        <v>11.63</v>
+      </c>
+      <c r="J72" s="18">
+        <v>7.246</v>
+      </c>
+      <c r="K72" t="s" s="17">
+        <v>528</v>
       </c>
       <c r="L72" s="19"/>
       <c r="M72" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N72" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="O72" t="s" s="23">
+        <v>220</v>
+      </c>
+      <c r="O72" t="s" s="15">
+        <v>592</v>
+      </c>
+      <c r="P72" t="s" s="15">
         <v>593</v>
       </c>
-      <c r="P72" t="s" s="23">
+      <c r="Q72" s="17"/>
+      <c r="R72" t="s" s="15">
         <v>594</v>
       </c>
-      <c r="Q72" s="51"/>
-      <c r="R72" t="s" s="23">
+      <c r="S72" t="s" s="15">
         <v>595</v>
       </c>
-      <c r="S72" s="52"/>
-      <c r="T72" t="s" s="14">
+      <c r="T72" t="s" s="17">
         <v>596</v>
       </c>
-      <c r="U72" t="s" s="14">
-        <v>597</v>
-      </c>
-      <c r="V72" t="s" s="14">
-        <v>598</v>
-      </c>
+      <c r="U72" s="17"/>
+      <c r="V72" s="17"/>
     </row>
     <row r="73" ht="20.25" customHeight="1">
       <c r="A73" s="13">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="13">
         <f>J73</f>
-        <v>113</v>
+        <v>227</v>
       </c>
       <c r="C73" t="s" s="14">
         <f>CONCATENATE(E73," ",F73)</f>
+        <v>597</v>
+      </c>
+      <c r="D73" t="s" s="14">
+        <v>598</v>
+      </c>
+      <c r="E73" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F73" t="s" s="14">
         <v>599</v>
       </c>
-      <c r="D73" t="s" s="38">
+      <c r="G73" t="s" s="14">
         <v>600</v>
       </c>
-      <c r="E73" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F73" t="s" s="17">
+      <c r="H73" t="s" s="14">
+        <v>599</v>
+      </c>
+      <c r="I73" s="13">
+        <v>237</v>
+      </c>
+      <c r="J73" s="22">
+        <v>227</v>
+      </c>
+      <c r="K73" t="s" s="23">
         <v>601</v>
-      </c>
-      <c r="G73" t="s" s="14">
-        <v>591</v>
-      </c>
-      <c r="H73" t="s" s="14">
-        <v>590</v>
-      </c>
-      <c r="I73" s="18">
-        <v>125</v>
-      </c>
-      <c r="J73" s="18">
-        <v>113</v>
-      </c>
-      <c r="K73" t="s" s="17">
-        <v>602</v>
       </c>
       <c r="L73" s="19"/>
       <c r="M73" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N73" t="s" s="17">
+        <v>71</v>
+      </c>
+      <c r="O73" t="s" s="23">
+        <v>602</v>
+      </c>
+      <c r="P73" t="s" s="23">
         <v>603</v>
       </c>
-      <c r="O73" t="s" s="15">
+      <c r="Q73" s="51"/>
+      <c r="R73" t="s" s="23">
         <v>604</v>
       </c>
-      <c r="P73" t="s" s="15">
+      <c r="S73" s="52"/>
+      <c r="T73" t="s" s="14">
         <v>605</v>
       </c>
-      <c r="Q73" s="17"/>
-      <c r="R73" t="s" s="15">
+      <c r="U73" t="s" s="14">
         <v>606</v>
       </c>
-      <c r="S73" t="s" s="15">
+      <c r="V73" t="s" s="14">
         <v>607</v>
       </c>
-      <c r="T73" t="s" s="17">
-        <v>608</v>
-      </c>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
     </row>
     <row r="74" ht="20.25" customHeight="1">
       <c r="A74" s="13">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="13">
         <f>J74</f>
-        <v>100.5</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s" s="14">
         <f>CONCATENATE(E74," ",F74)</f>
+        <v>608</v>
+      </c>
+      <c r="D74" t="s" s="38">
         <v>609</v>
       </c>
-      <c r="D74" t="s" s="17">
+      <c r="E74" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F74" t="s" s="17">
         <v>610</v>
       </c>
-      <c r="E74" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F74" t="s" s="17">
+      <c r="G74" t="s" s="14">
+        <v>600</v>
+      </c>
+      <c r="H74" t="s" s="14">
+        <v>599</v>
+      </c>
+      <c r="I74" s="18">
+        <v>125</v>
+      </c>
+      <c r="J74" s="18">
+        <v>113</v>
+      </c>
+      <c r="K74" t="s" s="17">
         <v>611</v>
       </c>
-      <c r="G74" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="H74" t="s" s="17">
-        <v>611</v>
-      </c>
-      <c r="I74" s="18">
-        <v>113</v>
-      </c>
-      <c r="J74" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="K74" t="s" s="17">
-        <v>612</v>
-      </c>
-      <c r="L74" s="16"/>
+      <c r="L74" s="19"/>
       <c r="M74" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N74" t="s" s="17">
-        <v>501</v>
-      </c>
-      <c r="O74" t="s" s="28">
-        <v>502</v>
-      </c>
-      <c r="P74" t="s" s="25">
-        <v>503</v>
-      </c>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="53"/>
-      <c r="S74" t="s" s="28">
+        <v>612</v>
+      </c>
+      <c r="O74" t="s" s="15">
         <v>613</v>
       </c>
+      <c r="P74" t="s" s="15">
+        <v>614</v>
+      </c>
+      <c r="Q74" s="17"/>
+      <c r="R74" t="s" s="15">
+        <v>615</v>
+      </c>
+      <c r="S74" t="s" s="15">
+        <v>616</v>
+      </c>
       <c r="T74" t="s" s="17">
-        <v>614</v>
-      </c>
-      <c r="U74" s="17"/>
-      <c r="V74" s="17"/>
+        <v>617</v>
+      </c>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
     </row>
     <row r="75" ht="20.25" customHeight="1">
       <c r="A75" s="13">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="13">
         <f>J75</f>
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="C75" t="s" s="14">
         <f>CONCATENATE(E75," ",F75)</f>
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="D75" t="s" s="17">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E75" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F75" t="s" s="17">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G75" t="s" s="17">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s" s="17">
-        <v>206</v>
+        <v>620</v>
       </c>
       <c r="I75" s="18">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J75" s="18">
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="K75" t="s" s="17">
-        <v>286</v>
-      </c>
-      <c r="L75" s="17"/>
+        <v>621</v>
+      </c>
+      <c r="L75" s="16"/>
       <c r="M75" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N75" t="s" s="17">
-        <v>208</v>
-      </c>
-      <c r="O75" t="s" s="17">
-        <v>618</v>
-      </c>
-      <c r="P75" t="s" s="17">
-        <v>289</v>
-      </c>
-      <c r="Q75" t="s" s="17">
-        <v>211</v>
-      </c>
-      <c r="R75" t="s" s="17">
-        <v>619</v>
-      </c>
-      <c r="S75" t="s" s="17">
-        <v>620</v>
+        <v>511</v>
+      </c>
+      <c r="O75" t="s" s="28">
+        <v>512</v>
+      </c>
+      <c r="P75" t="s" s="25">
+        <v>513</v>
+      </c>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="53"/>
+      <c r="S75" t="s" s="28">
+        <v>622</v>
       </c>
       <c r="T75" t="s" s="17">
-        <v>621</v>
-      </c>
-      <c r="U75" t="s" s="17">
-        <v>622</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="U75" s="17"/>
       <c r="V75" s="17"/>
     </row>
     <row r="76" ht="20.25" customHeight="1">
       <c r="A76" s="13">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="13">
         <f>J76</f>
-        <v>23.03</v>
+        <v>113</v>
       </c>
       <c r="C76" t="s" s="14">
         <f>CONCATENATE(E76," ",F76)</f>
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D76" t="s" s="17">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E76" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F76" t="s" s="17">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G76" t="s" s="17">
         <v>103</v>
@@ -10244,29 +10266,29 @@
         <v>206</v>
       </c>
       <c r="I76" s="18">
-        <v>33.9</v>
+        <v>125</v>
       </c>
       <c r="J76" s="18">
-        <v>23.03</v>
+        <v>113</v>
       </c>
       <c r="K76" t="s" s="17">
-        <v>624</v>
+        <v>296</v>
       </c>
       <c r="L76" s="17"/>
       <c r="M76" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N76" t="s" s="17">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="O76" t="s" s="17">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P76" t="s" s="17">
-        <v>626</v>
+        <v>299</v>
       </c>
       <c r="Q76" t="s" s="17">
-        <v>627</v>
+        <v>211</v>
       </c>
       <c r="R76" t="s" s="17">
         <v>628</v>
@@ -10284,24 +10306,24 @@
     </row>
     <row r="77" ht="20.25" customHeight="1">
       <c r="A77" s="13">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="13">
         <f>J77</f>
-        <v>5.333</v>
+        <v>23.03</v>
       </c>
       <c r="C77" t="s" s="14">
         <f>CONCATENATE(E77," ",F77)</f>
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D77" t="s" s="17">
         <v>632</v>
       </c>
       <c r="E77" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s" s="17">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G77" t="s" s="17">
         <v>103</v>
@@ -10310,10 +10332,10 @@
         <v>206</v>
       </c>
       <c r="I77" s="18">
+        <v>33.9</v>
+      </c>
+      <c r="J77" s="18">
         <v>23.03</v>
-      </c>
-      <c r="J77" s="18">
-        <v>5.333</v>
       </c>
       <c r="K77" t="s" s="17">
         <v>633</v>
@@ -10323,49 +10345,51 @@
         <v>32</v>
       </c>
       <c r="N77" t="s" s="17">
+        <v>372</v>
+      </c>
+      <c r="O77" t="s" s="17">
         <v>634</v>
       </c>
-      <c r="O77" t="s" s="17">
+      <c r="P77" t="s" s="17">
         <v>635</v>
       </c>
-      <c r="P77" s="16"/>
       <c r="Q77" t="s" s="17">
-        <v>129</v>
+        <v>636</v>
       </c>
       <c r="R77" t="s" s="17">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="S77" t="s" s="17">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="T77" t="s" s="17">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="U77" t="s" s="17">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="V77" s="17"/>
     </row>
     <row r="78" ht="20.25" customHeight="1">
       <c r="A78" s="13">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="13">
         <f>J78</f>
-        <v>100.5</v>
+        <v>5.333</v>
       </c>
       <c r="C78" t="s" s="14">
         <f>CONCATENATE(E78," ",F78)</f>
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D78" t="s" s="17">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E78" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F78" t="s" s="17">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G78" t="s" s="17">
         <v>103</v>
@@ -10374,62 +10398,62 @@
         <v>206</v>
       </c>
       <c r="I78" s="18">
-        <v>113</v>
+        <v>23.03</v>
       </c>
       <c r="J78" s="18">
-        <v>100.5</v>
+        <v>5.333</v>
       </c>
       <c r="K78" t="s" s="17">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="L78" s="17"/>
       <c r="M78" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N78" t="s" s="17">
-        <v>127</v>
+        <v>643</v>
       </c>
       <c r="O78" t="s" s="17">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="P78" s="16"/>
       <c r="Q78" t="s" s="17">
         <v>129</v>
       </c>
       <c r="R78" t="s" s="17">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="S78" t="s" s="17">
-        <v>130</v>
+        <v>646</v>
       </c>
       <c r="T78" t="s" s="17">
-        <v>131</v>
+        <v>647</v>
       </c>
       <c r="U78" t="s" s="17">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="V78" s="17"/>
     </row>
     <row r="79" ht="20.25" customHeight="1">
       <c r="A79" s="13">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="13">
         <f>J79</f>
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="C79" t="s" s="14">
         <f>CONCATENATE(E79," ",F79)</f>
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="D79" t="s" s="17">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="E79" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F79" t="s" s="17">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="G79" t="s" s="17">
         <v>103</v>
@@ -10438,859 +10462,857 @@
         <v>206</v>
       </c>
       <c r="I79" s="18">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J79" s="18">
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="K79" t="s" s="17">
-        <v>286</v>
+        <v>650</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N79" t="s" s="17">
-        <v>208</v>
+        <v>127</v>
       </c>
       <c r="O79" t="s" s="17">
-        <v>646</v>
-      </c>
-      <c r="P79" t="s" s="17">
-        <v>289</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="P79" s="16"/>
       <c r="Q79" t="s" s="17">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="R79" t="s" s="17">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="S79" t="s" s="17">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="T79" t="s" s="17">
-        <v>648</v>
+        <v>131</v>
       </c>
       <c r="U79" t="s" s="17">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="V79" s="17"/>
     </row>
     <row r="80" ht="20.25" customHeight="1">
       <c r="A80" s="13">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="13">
         <f>J80</f>
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s" s="14">
         <f>CONCATENATE(E80," ",F80)</f>
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="D80" t="s" s="17">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E80" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F80" t="s" s="17">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="G80" t="s" s="17">
         <v>103</v>
       </c>
       <c r="H80" t="s" s="17">
-        <v>652</v>
+        <v>206</v>
       </c>
       <c r="I80" s="18">
-        <v>129.4</v>
+        <v>125</v>
       </c>
       <c r="J80" s="18">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K80" t="s" s="17">
-        <v>653</v>
+        <v>296</v>
       </c>
       <c r="L80" s="17"/>
       <c r="M80" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N80" t="s" s="17">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="O80" t="s" s="17">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="P80" t="s" s="17">
-        <v>655</v>
+        <v>299</v>
       </c>
       <c r="Q80" t="s" s="17">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="R80" t="s" s="17">
         <v>656</v>
       </c>
       <c r="S80" t="s" s="17">
+        <v>38</v>
+      </c>
+      <c r="T80" t="s" s="17">
         <v>657</v>
       </c>
-      <c r="T80" t="s" s="17">
+      <c r="U80" t="s" s="17">
         <v>658</v>
-      </c>
-      <c r="U80" t="s" s="17">
-        <v>659</v>
       </c>
       <c r="V80" s="17"/>
     </row>
     <row r="81" ht="20.25" customHeight="1">
       <c r="A81" s="13">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="13">
         <f>J81</f>
-        <v>168.3</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s" s="14">
         <f>CONCATENATE(E81," ",F81)</f>
+        <v>659</v>
+      </c>
+      <c r="D81" t="s" s="17">
         <v>660</v>
       </c>
-      <c r="D81" t="s" s="14">
+      <c r="E81" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F81" t="s" s="17">
         <v>661</v>
       </c>
-      <c r="E81" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F81" t="s" s="27">
+      <c r="G81" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="H81" t="s" s="17">
+        <v>661</v>
+      </c>
+      <c r="I81" s="18">
+        <v>129.4</v>
+      </c>
+      <c r="J81" s="18">
+        <v>125</v>
+      </c>
+      <c r="K81" t="s" s="17">
         <v>662</v>
       </c>
-      <c r="G81" t="s" s="17">
-        <v>68</v>
-      </c>
-      <c r="H81" t="s" s="27">
-        <v>267</v>
-      </c>
-      <c r="I81" s="13">
-        <v>170.3</v>
-      </c>
-      <c r="J81" s="22">
-        <v>168.3</v>
-      </c>
-      <c r="K81" t="s" s="23">
-        <v>184</v>
-      </c>
-      <c r="L81" s="51"/>
-      <c r="M81" t="s" s="54">
+      <c r="L81" s="17"/>
+      <c r="M81" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N81" t="s" s="55">
-        <v>185</v>
-      </c>
-      <c r="O81" t="s" s="23">
+      <c r="N81" t="s" s="17">
+        <v>71</v>
+      </c>
+      <c r="O81" t="s" s="17">
         <v>663</v>
       </c>
       <c r="P81" t="s" s="17">
         <v>664</v>
       </c>
-      <c r="Q81" s="51"/>
-      <c r="R81" t="s" s="23">
+      <c r="Q81" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="R81" t="s" s="17">
         <v>665</v>
       </c>
-      <c r="S81" t="s" s="23">
-        <v>189</v>
+      <c r="S81" t="s" s="17">
+        <v>666</v>
       </c>
       <c r="T81" t="s" s="17">
-        <v>666</v>
-      </c>
-      <c r="U81" t="s" s="23">
         <v>667</v>
       </c>
-      <c r="V81" t="s" s="17">
+      <c r="U81" t="s" s="17">
         <v>668</v>
       </c>
+      <c r="V81" s="17"/>
     </row>
     <row r="82" ht="20.25" customHeight="1">
       <c r="A82" s="13">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="13">
         <f>J82</f>
-        <v>89.8</v>
+        <v>168.3</v>
       </c>
       <c r="C82" t="s" s="14">
         <f>CONCATENATE(E82," ",F82)</f>
-        <v>660</v>
-      </c>
-      <c r="D82" t="s" s="27">
         <v>669</v>
       </c>
+      <c r="D82" t="s" s="14">
+        <v>670</v>
+      </c>
       <c r="E82" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F82" t="s" s="27">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="G82" t="s" s="17">
         <v>68</v>
       </c>
       <c r="H82" t="s" s="27">
-        <v>267</v>
-      </c>
-      <c r="I82" s="18">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="J82" s="30">
-        <v>89.8</v>
-      </c>
-      <c r="K82" t="s" s="17">
-        <v>670</v>
-      </c>
-      <c r="L82" s="29"/>
-      <c r="M82" t="s" s="26">
+        <v>277</v>
+      </c>
+      <c r="I82" s="13">
+        <v>170.3</v>
+      </c>
+      <c r="J82" s="22">
+        <v>168.3</v>
+      </c>
+      <c r="K82" t="s" s="23">
+        <v>184</v>
+      </c>
+      <c r="L82" s="51"/>
+      <c r="M82" t="s" s="54">
         <v>32</v>
       </c>
-      <c r="N82" t="s" s="27">
-        <v>71</v>
-      </c>
-      <c r="O82" t="s" s="17">
-        <v>671</v>
+      <c r="N82" t="s" s="55">
+        <v>185</v>
+      </c>
+      <c r="O82" t="s" s="23">
+        <v>672</v>
       </c>
       <c r="P82" t="s" s="17">
-        <v>672</v>
-      </c>
-      <c r="Q82" s="29"/>
-      <c r="R82" t="s" s="17">
         <v>673</v>
       </c>
-      <c r="S82" s="17"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" t="s" s="23">
+        <v>674</v>
+      </c>
+      <c r="S82" t="s" s="23">
+        <v>189</v>
+      </c>
       <c r="T82" t="s" s="17">
-        <v>674</v>
-      </c>
-      <c r="U82" t="s" s="17">
         <v>675</v>
       </c>
-      <c r="V82" t="s" s="27">
+      <c r="U82" t="s" s="23">
         <v>676</v>
+      </c>
+      <c r="V82" t="s" s="17">
+        <v>677</v>
       </c>
     </row>
     <row r="83" ht="20.25" customHeight="1">
       <c r="A83" s="13">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="13">
         <f>J83</f>
-        <v>298.9</v>
+        <v>89.8</v>
       </c>
       <c r="C83" t="s" s="14">
         <f>CONCATENATE(E83," ",F83)</f>
-        <v>677</v>
-      </c>
-      <c r="D83" t="s" s="17">
+        <v>669</v>
+      </c>
+      <c r="D83" t="s" s="27">
         <v>678</v>
       </c>
       <c r="E83" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F83" t="s" s="17">
-        <v>276</v>
+        <v>323</v>
+      </c>
+      <c r="F83" t="s" s="27">
+        <v>671</v>
       </c>
       <c r="G83" t="s" s="17">
+        <v>68</v>
+      </c>
+      <c r="H83" t="s" s="27">
         <v>277</v>
       </c>
-      <c r="H83" t="s" s="17">
-        <v>276</v>
-      </c>
       <c r="I83" s="18">
-        <v>307</v>
-      </c>
-      <c r="J83" s="18">
-        <v>298.9</v>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J83" s="30">
+        <v>89.8</v>
       </c>
       <c r="K83" t="s" s="17">
         <v>679</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" t="s" s="20">
+      <c r="L83" s="29"/>
+      <c r="M83" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N83" t="s" s="17">
+      <c r="N83" t="s" s="27">
         <v>71</v>
       </c>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
+      <c r="O83" t="s" s="17">
+        <v>680</v>
+      </c>
+      <c r="P83" t="s" s="17">
+        <v>681</v>
+      </c>
+      <c r="Q83" s="29"/>
+      <c r="R83" t="s" s="17">
+        <v>682</v>
+      </c>
+      <c r="S83" s="17"/>
       <c r="T83" t="s" s="17">
-        <v>680</v>
-      </c>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
+        <v>683</v>
+      </c>
+      <c r="U83" t="s" s="17">
+        <v>684</v>
+      </c>
+      <c r="V83" t="s" s="27">
+        <v>685</v>
+      </c>
     </row>
     <row r="84" ht="20.25" customHeight="1">
       <c r="A84" s="13">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="13">
         <f>J84</f>
-        <v>174.1</v>
+        <v>298.9</v>
       </c>
       <c r="C84" t="s" s="14">
         <f>CONCATENATE(E84," ",F84)</f>
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D84" t="s" s="17">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="E84" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F84" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G84" t="s" s="17">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H84" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I84" s="18">
-        <v>201.3</v>
+        <v>307</v>
       </c>
       <c r="J84" s="18">
-        <v>174.1</v>
+        <v>298.9</v>
       </c>
       <c r="K84" t="s" s="17">
-        <v>471</v>
-      </c>
-      <c r="L84" s="16"/>
+        <v>688</v>
+      </c>
+      <c r="L84" s="17"/>
       <c r="M84" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N84" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O84" t="s" s="32">
-        <v>682</v>
-      </c>
-      <c r="P84" t="s" s="17">
-        <v>683</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
       <c r="Q84" s="16"/>
-      <c r="R84" t="s" s="17">
-        <v>684</v>
-      </c>
-      <c r="S84" t="s" s="17">
-        <v>685</v>
-      </c>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
       <c r="T84" t="s" s="17">
-        <v>686</v>
-      </c>
-      <c r="U84" t="s" s="17">
-        <v>284</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="U84" s="16"/>
       <c r="V84" s="16"/>
     </row>
     <row r="85" ht="20.25" customHeight="1">
       <c r="A85" s="13">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="13">
         <f>J85</f>
-        <v>86.3</v>
+        <v>174.1</v>
       </c>
       <c r="C85" t="s" s="14">
         <f>CONCATENATE(E85," ",F85)</f>
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D85" t="s" s="17">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="E85" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F85" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G85" t="s" s="17">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H85" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I85" s="18">
-        <v>89.8</v>
+        <v>201.3</v>
       </c>
       <c r="J85" s="18">
-        <v>86.3</v>
+        <v>174.1</v>
       </c>
       <c r="K85" t="s" s="17">
-        <v>688</v>
-      </c>
-      <c r="L85" s="17"/>
+        <v>481</v>
+      </c>
+      <c r="L85" s="16"/>
       <c r="M85" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N85" t="s" s="17">
-        <v>287</v>
-      </c>
-      <c r="O85" t="s" s="56">
-        <v>689</v>
-      </c>
-      <c r="P85" t="s" s="56">
-        <v>690</v>
-      </c>
-      <c r="Q85" t="s" s="17">
-        <v>146</v>
-      </c>
-      <c r="R85" t="s" s="56">
+        <v>220</v>
+      </c>
+      <c r="O85" t="s" s="32">
         <v>691</v>
       </c>
-      <c r="S85" s="16"/>
-      <c r="T85" s="17"/>
-      <c r="U85" s="16"/>
+      <c r="P85" t="s" s="17">
+        <v>692</v>
+      </c>
+      <c r="Q85" s="16"/>
+      <c r="R85" t="s" s="17">
+        <v>693</v>
+      </c>
+      <c r="S85" t="s" s="17">
+        <v>694</v>
+      </c>
+      <c r="T85" t="s" s="17">
+        <v>695</v>
+      </c>
+      <c r="U85" t="s" s="17">
+        <v>294</v>
+      </c>
       <c r="V85" s="16"/>
     </row>
     <row r="86" ht="20.25" customHeight="1">
       <c r="A86" s="13">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="13">
         <f>J86</f>
-        <v>174.1</v>
+        <v>86.3</v>
       </c>
       <c r="C86" t="s" s="14">
         <f>CONCATENATE(E86," ",F86)</f>
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="D86" t="s" s="17">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E86" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F86" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="G86" t="s" s="17">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="H86" t="s" s="17">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="I86" s="18">
-        <v>182.7</v>
+        <v>89.8</v>
       </c>
       <c r="J86" s="18">
-        <v>174.1</v>
+        <v>86.3</v>
       </c>
       <c r="K86" t="s" s="17">
-        <v>693</v>
-      </c>
-      <c r="L86" s="16"/>
+        <v>697</v>
+      </c>
+      <c r="L86" s="17"/>
       <c r="M86" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N86" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="O86" t="s" s="17">
-        <v>694</v>
-      </c>
-      <c r="P86" t="s" s="17">
-        <v>695</v>
-      </c>
-      <c r="Q86" s="16"/>
-      <c r="R86" t="s" s="17">
-        <v>696</v>
-      </c>
-      <c r="S86" t="s" s="17">
-        <v>38</v>
-      </c>
-      <c r="T86" t="s" s="17">
-        <v>697</v>
-      </c>
-      <c r="U86" t="s" s="17">
-        <v>284</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="O86" t="s" s="56">
+        <v>698</v>
+      </c>
+      <c r="P86" t="s" s="56">
+        <v>699</v>
+      </c>
+      <c r="Q86" t="s" s="17">
+        <v>146</v>
+      </c>
+      <c r="R86" t="s" s="56">
+        <v>700</v>
+      </c>
+      <c r="S86" s="16"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="16"/>
       <c r="V86" s="16"/>
     </row>
     <row r="87" ht="20.25" customHeight="1">
       <c r="A87" s="13">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="13">
         <f>J87</f>
-        <v>307</v>
+        <v>174.1</v>
       </c>
       <c r="C87" t="s" s="14">
         <f>CONCATENATE(E87," ",F87)</f>
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="D87" t="s" s="17">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E87" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s" s="17">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G87" t="s" s="17">
-        <v>277</v>
-      </c>
-      <c r="H87" s="17"/>
+        <v>287</v>
+      </c>
+      <c r="H87" t="s" s="17">
+        <v>286</v>
+      </c>
       <c r="I87" s="18">
-        <v>315.2</v>
+        <v>182.7</v>
       </c>
       <c r="J87" s="18">
-        <v>307</v>
+        <v>174.1</v>
       </c>
       <c r="K87" t="s" s="17">
-        <v>700</v>
-      </c>
-      <c r="L87" s="17"/>
+        <v>702</v>
+      </c>
+      <c r="L87" s="16"/>
       <c r="M87" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N87" t="s" s="17">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="O87" t="s" s="17">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="P87" t="s" s="17">
-        <v>702</v>
-      </c>
-      <c r="Q87" t="s" s="17">
-        <v>146</v>
-      </c>
-      <c r="R87" s="17"/>
-      <c r="S87" s="17"/>
+        <v>704</v>
+      </c>
+      <c r="Q87" s="16"/>
+      <c r="R87" t="s" s="17">
+        <v>705</v>
+      </c>
+      <c r="S87" t="s" s="17">
+        <v>38</v>
+      </c>
       <c r="T87" t="s" s="17">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="U87" t="s" s="17">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="V87" s="16"/>
     </row>
     <row r="88" ht="20.25" customHeight="1">
       <c r="A88" s="13">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="13">
         <f>J88</f>
-        <v>145</v>
+        <v>307</v>
       </c>
       <c r="C88" t="s" s="14">
         <f>CONCATENATE(E88," ",F88)</f>
-        <v>704</v>
-      </c>
-      <c r="D88" t="s" s="27">
-        <v>705</v>
+        <v>707</v>
+      </c>
+      <c r="D88" t="s" s="17">
+        <v>708</v>
       </c>
       <c r="E88" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F88" t="s" s="27">
-        <v>706</v>
-      </c>
-      <c r="G88" t="s" s="57">
-        <v>344</v>
-      </c>
-      <c r="H88" t="s" s="27">
-        <v>706</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="F88" t="s" s="17">
+        <v>287</v>
+      </c>
+      <c r="G88" t="s" s="17">
+        <v>287</v>
+      </c>
+      <c r="H88" s="17"/>
       <c r="I88" s="18">
-        <v>163.5</v>
-      </c>
-      <c r="J88" s="30">
-        <v>145</v>
+        <v>315.2</v>
+      </c>
+      <c r="J88" s="18">
+        <v>307</v>
       </c>
       <c r="K88" t="s" s="17">
-        <v>707</v>
-      </c>
-      <c r="L88" s="29"/>
-      <c r="M88" t="s" s="26">
+        <v>709</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N88" t="s" s="27">
-        <v>354</v>
-      </c>
-      <c r="O88" t="s" s="25">
-        <v>708</v>
+      <c r="N88" t="s" s="17">
+        <v>71</v>
+      </c>
+      <c r="O88" t="s" s="17">
+        <v>710</v>
       </c>
       <c r="P88" t="s" s="17">
-        <v>709</v>
-      </c>
-      <c r="Q88" s="29"/>
-      <c r="R88" t="s" s="17">
-        <v>710</v>
-      </c>
-      <c r="S88" t="s" s="17">
         <v>711</v>
       </c>
+      <c r="Q88" t="s" s="17">
+        <v>146</v>
+      </c>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
       <c r="T88" t="s" s="17">
         <v>712</v>
       </c>
-      <c r="U88" t="s" s="27">
-        <v>713</v>
+      <c r="U88" t="s" s="17">
+        <v>294</v>
       </c>
       <c r="V88" s="16"/>
     </row>
     <row r="89" ht="20.25" customHeight="1">
       <c r="A89" s="13">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="13">
         <f>J89</f>
-        <v>93.90000000000001</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s" s="14">
         <f>CONCATENATE(E89," ",F89)</f>
-        <v>704</v>
-      </c>
-      <c r="D89" t="s" s="57">
+        <v>713</v>
+      </c>
+      <c r="D89" t="s" s="27">
         <v>714</v>
       </c>
       <c r="E89" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F89" t="s" s="57">
-        <v>706</v>
+        <v>323</v>
+      </c>
+      <c r="F89" t="s" s="27">
+        <v>715</v>
       </c>
       <c r="G89" t="s" s="57">
-        <v>344</v>
-      </c>
-      <c r="H89" t="s" s="57">
-        <v>706</v>
+        <v>354</v>
+      </c>
+      <c r="H89" t="s" s="27">
+        <v>715</v>
       </c>
       <c r="I89" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="J89" s="18">
-        <v>93.90000000000001</v>
+        <v>163.5</v>
+      </c>
+      <c r="J89" s="30">
+        <v>145</v>
       </c>
       <c r="K89" t="s" s="17">
-        <v>126</v>
+        <v>716</v>
       </c>
       <c r="L89" s="29"/>
       <c r="M89" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N89" t="s" s="27">
-        <v>715</v>
-      </c>
-      <c r="O89" t="s" s="49">
-        <v>716</v>
+        <v>364</v>
+      </c>
+      <c r="O89" t="s" s="25">
+        <v>717</v>
       </c>
       <c r="P89" t="s" s="17">
-        <v>717</v>
-      </c>
-      <c r="Q89" t="s" s="27">
         <v>718</v>
       </c>
-      <c r="R89" t="s" s="49">
+      <c r="Q89" s="29"/>
+      <c r="R89" t="s" s="17">
         <v>719</v>
       </c>
-      <c r="S89" t="s" s="49">
+      <c r="S89" t="s" s="17">
         <v>720</v>
       </c>
       <c r="T89" t="s" s="17">
         <v>721</v>
       </c>
-      <c r="U89" s="16"/>
+      <c r="U89" t="s" s="27">
+        <v>722</v>
+      </c>
       <c r="V89" s="16"/>
     </row>
     <row r="90" ht="20.25" customHeight="1">
       <c r="A90" s="13">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="13">
         <f>J90</f>
-        <v>100.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C90" t="s" s="14">
         <f>CONCATENATE(E90," ",F90)</f>
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="D90" t="s" s="57">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E90" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F90" t="s" s="57">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="G90" t="s" s="57">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H90" t="s" s="57">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="I90" s="18">
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="J90" s="18">
-        <v>100.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K90" t="s" s="17">
-        <v>612</v>
+        <v>126</v>
       </c>
       <c r="L90" s="29"/>
       <c r="M90" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N90" t="s" s="27">
-        <v>287</v>
+        <v>724</v>
       </c>
       <c r="O90" t="s" s="49">
-        <v>723</v>
-      </c>
-      <c r="P90" t="s" s="49">
-        <v>723</v>
-      </c>
-      <c r="Q90" s="29"/>
+        <v>725</v>
+      </c>
+      <c r="P90" t="s" s="17">
+        <v>726</v>
+      </c>
+      <c r="Q90" t="s" s="27">
+        <v>727</v>
+      </c>
       <c r="R90" t="s" s="49">
-        <v>724</v>
-      </c>
-      <c r="S90" s="50"/>
+        <v>728</v>
+      </c>
+      <c r="S90" t="s" s="49">
+        <v>729</v>
+      </c>
       <c r="T90" t="s" s="17">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="U90" s="16"/>
       <c r="V90" s="16"/>
     </row>
     <row r="91" ht="20.25" customHeight="1">
       <c r="A91" s="13">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="13">
         <f>J91</f>
-        <v>242</v>
+        <v>100.5</v>
       </c>
       <c r="C91" t="s" s="14">
         <f>CONCATENATE(E91," ",F91)</f>
-        <v>725</v>
-      </c>
-      <c r="D91" t="s" s="14">
-        <v>726</v>
+        <v>713</v>
+      </c>
+      <c r="D91" t="s" s="57">
+        <v>731</v>
       </c>
       <c r="E91" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F91" t="s" s="14">
-        <v>727</v>
-      </c>
-      <c r="G91" t="s" s="14">
-        <v>556</v>
-      </c>
-      <c r="H91" t="s" s="14">
-        <v>727</v>
-      </c>
-      <c r="I91" s="13">
-        <v>247.2</v>
-      </c>
-      <c r="J91" s="22">
-        <v>242</v>
-      </c>
-      <c r="K91" t="s" s="23">
-        <v>728</v>
-      </c>
-      <c r="L91" s="51"/>
-      <c r="M91" t="s" s="54">
+        <v>323</v>
+      </c>
+      <c r="F91" t="s" s="57">
+        <v>715</v>
+      </c>
+      <c r="G91" t="s" s="57">
+        <v>354</v>
+      </c>
+      <c r="H91" t="s" s="57">
+        <v>715</v>
+      </c>
+      <c r="I91" s="18">
+        <v>113</v>
+      </c>
+      <c r="J91" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="K91" t="s" s="17">
+        <v>621</v>
+      </c>
+      <c r="L91" s="29"/>
+      <c r="M91" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N91" t="s" s="55">
-        <v>287</v>
-      </c>
-      <c r="O91" t="s" s="23">
-        <v>729</v>
-      </c>
-      <c r="P91" t="s" s="23">
+      <c r="N91" t="s" s="27">
+        <v>297</v>
+      </c>
+      <c r="O91" t="s" s="49">
+        <v>732</v>
+      </c>
+      <c r="P91" t="s" s="49">
+        <v>732</v>
+      </c>
+      <c r="Q91" s="29"/>
+      <c r="R91" t="s" s="49">
+        <v>733</v>
+      </c>
+      <c r="S91" s="50"/>
+      <c r="T91" t="s" s="17">
         <v>730</v>
       </c>
-      <c r="Q91" s="51"/>
-      <c r="R91" t="s" s="41">
-        <v>731</v>
-      </c>
-      <c r="S91" s="23"/>
-      <c r="T91" t="s" s="14">
-        <v>732</v>
-      </c>
-      <c r="U91" s="23"/>
-      <c r="V91" s="23"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
     </row>
     <row r="92" ht="20.25" customHeight="1">
       <c r="A92" s="13">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="13">
         <f>J92</f>
-        <v>100.5</v>
+        <v>242</v>
       </c>
       <c r="C92" t="s" s="14">
         <f>CONCATENATE(E92," ",F92)</f>
-        <v>733</v>
-      </c>
-      <c r="D92" t="s" s="28">
         <v>734</v>
       </c>
+      <c r="D92" t="s" s="14">
+        <v>735</v>
+      </c>
       <c r="E92" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F92" t="s" s="17">
-        <v>727</v>
+        <v>323</v>
+      </c>
+      <c r="F92" t="s" s="14">
+        <v>736</v>
       </c>
       <c r="G92" t="s" s="14">
-        <v>556</v>
-      </c>
-      <c r="H92" t="s" s="17">
-        <v>727</v>
-      </c>
-      <c r="I92" s="18">
-        <v>113</v>
-      </c>
-      <c r="J92" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="K92" t="s" s="17">
-        <v>612</v>
-      </c>
-      <c r="L92" t="s" s="17">
-        <v>735</v>
-      </c>
-      <c r="M92" t="s" s="20">
+        <v>565</v>
+      </c>
+      <c r="H92" t="s" s="14">
+        <v>736</v>
+      </c>
+      <c r="I92" s="13">
+        <v>247.2</v>
+      </c>
+      <c r="J92" s="22">
+        <v>242</v>
+      </c>
+      <c r="K92" t="s" s="23">
+        <v>737</v>
+      </c>
+      <c r="L92" s="51"/>
+      <c r="M92" t="s" s="54">
         <v>32</v>
       </c>
-      <c r="N92" t="s" s="17">
-        <v>33</v>
-      </c>
-      <c r="O92" t="s" s="28">
-        <v>736</v>
-      </c>
-      <c r="P92" t="s" s="28">
-        <v>737</v>
-      </c>
-      <c r="Q92" s="16"/>
-      <c r="R92" t="s" s="28">
+      <c r="N92" t="s" s="55">
+        <v>297</v>
+      </c>
+      <c r="O92" t="s" s="23">
         <v>738</v>
       </c>
-      <c r="S92" t="s" s="28">
+      <c r="P92" t="s" s="23">
         <v>739</v>
       </c>
-      <c r="T92" t="s" s="17">
+      <c r="Q92" s="51"/>
+      <c r="R92" t="s" s="41">
         <v>740</v>
       </c>
-      <c r="U92" t="s" s="28">
+      <c r="S92" s="23"/>
+      <c r="T92" t="s" s="14">
         <v>741</v>
       </c>
-      <c r="V92" s="53"/>
+      <c r="U92" s="23"/>
+      <c r="V92" s="23"/>
     </row>
     <row r="93" ht="20.25" customHeight="1">
       <c r="A93" s="13">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="13">
         <f>J93</f>
@@ -11304,16 +11326,16 @@
         <v>743</v>
       </c>
       <c r="E93" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F93" t="s" s="17">
-        <v>744</v>
-      </c>
-      <c r="G93" t="s" s="27">
-        <v>30</v>
+        <v>736</v>
+      </c>
+      <c r="G93" t="s" s="14">
+        <v>565</v>
       </c>
       <c r="H93" t="s" s="17">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="I93" s="18">
         <v>113</v>
@@ -11322,24 +11344,24 @@
         <v>100.5</v>
       </c>
       <c r="K93" t="s" s="17">
-        <v>612</v>
-      </c>
-      <c r="L93" s="16"/>
+        <v>621</v>
+      </c>
+      <c r="L93" t="s" s="17">
+        <v>744</v>
+      </c>
       <c r="M93" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N93" t="s" s="17">
-        <v>501</v>
-      </c>
-      <c r="O93" t="s" s="17">
+        <v>33</v>
+      </c>
+      <c r="O93" t="s" s="28">
+        <v>745</v>
+      </c>
+      <c r="P93" t="s" s="28">
         <v>746</v>
       </c>
-      <c r="P93" t="s" s="25">
-        <v>503</v>
-      </c>
-      <c r="Q93" t="s" s="17">
-        <v>146</v>
-      </c>
+      <c r="Q93" s="16"/>
       <c r="R93" t="s" s="28">
         <v>747</v>
       </c>
@@ -11352,127 +11374,141 @@
       <c r="U93" t="s" s="28">
         <v>750</v>
       </c>
-      <c r="V93" t="s" s="58">
-        <v>751</v>
-      </c>
+      <c r="V93" s="53"/>
     </row>
     <row r="94" ht="20.25" customHeight="1">
       <c r="A94" s="13">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="13">
         <f>J94</f>
-        <v>56</v>
+        <v>100.5</v>
       </c>
       <c r="C94" t="s" s="14">
         <f>CONCATENATE(E94," ",F94)</f>
+        <v>751</v>
+      </c>
+      <c r="D94" t="s" s="28">
         <v>752</v>
       </c>
-      <c r="D94" t="s" s="27">
+      <c r="E94" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F94" t="s" s="17">
         <v>753</v>
-      </c>
-      <c r="E94" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F94" t="s" s="27">
-        <v>754</v>
       </c>
       <c r="G94" t="s" s="27">
         <v>30</v>
       </c>
-      <c r="H94" t="s" s="27">
+      <c r="H94" t="s" s="17">
+        <v>754</v>
+      </c>
+      <c r="I94" s="18">
+        <v>113</v>
+      </c>
+      <c r="J94" s="18">
+        <v>100.5</v>
+      </c>
+      <c r="K94" t="s" s="17">
+        <v>621</v>
+      </c>
+      <c r="L94" s="16"/>
+      <c r="M94" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="N94" t="s" s="17">
+        <v>511</v>
+      </c>
+      <c r="O94" t="s" s="17">
         <v>755</v>
       </c>
-      <c r="I94" s="18">
-        <v>59.2</v>
-      </c>
-      <c r="J94" s="18">
-        <v>56</v>
-      </c>
-      <c r="K94" t="s" s="17">
+      <c r="P94" t="s" s="25">
+        <v>513</v>
+      </c>
+      <c r="Q94" t="s" s="17">
+        <v>146</v>
+      </c>
+      <c r="R94" t="s" s="28">
         <v>756</v>
       </c>
-      <c r="L94" s="29"/>
-      <c r="M94" t="s" s="26">
-        <v>32</v>
-      </c>
-      <c r="N94" t="s" s="27">
-        <v>71</v>
-      </c>
-      <c r="O94" t="s" s="15">
+      <c r="S94" t="s" s="28">
         <v>757</v>
       </c>
-      <c r="P94" t="s" s="15">
+      <c r="T94" t="s" s="17">
         <v>758</v>
       </c>
-      <c r="Q94" s="29"/>
-      <c r="R94" t="s" s="15">
+      <c r="U94" t="s" s="28">
         <v>759</v>
       </c>
-      <c r="S94" t="s" s="15">
+      <c r="V94" t="s" s="58">
         <v>760</v>
       </c>
-      <c r="T94" t="s" s="17">
-        <v>761</v>
-      </c>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
     </row>
     <row r="95" ht="20.25" customHeight="1">
       <c r="A95" s="13">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="13">
         <f>J95</f>
-        <v>93.90000000000001</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s" s="14">
         <f>CONCATENATE(E95," ",F95)</f>
+        <v>761</v>
+      </c>
+      <c r="D95" t="s" s="27">
         <v>762</v>
       </c>
-      <c r="D95" t="s" s="34">
+      <c r="E95" t="s" s="17">
+        <v>323</v>
+      </c>
+      <c r="F95" t="s" s="27">
         <v>763</v>
       </c>
-      <c r="E95" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F95" t="s" s="17">
+      <c r="G95" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s" s="27">
         <v>764</v>
       </c>
-      <c r="G95" t="s" s="17">
+      <c r="I95" s="18">
+        <v>59.2</v>
+      </c>
+      <c r="J95" s="18">
+        <v>56</v>
+      </c>
+      <c r="K95" t="s" s="17">
         <v>765</v>
       </c>
-      <c r="H95" t="s" s="17">
+      <c r="L95" s="29"/>
+      <c r="M95" t="s" s="26">
+        <v>32</v>
+      </c>
+      <c r="N95" t="s" s="27">
+        <v>71</v>
+      </c>
+      <c r="O95" t="s" s="15">
         <v>766</v>
       </c>
-      <c r="I95" s="18">
-        <v>100.5</v>
-      </c>
-      <c r="J95" s="18">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="K95" t="s" s="17">
+      <c r="P95" t="s" s="15">
         <v>767</v>
       </c>
-      <c r="L95" s="16"/>
-      <c r="M95" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="N95" s="16"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="59"/>
-      <c r="Q95" s="17"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" t="s" s="15">
+        <v>768</v>
+      </c>
+      <c r="S95" t="s" s="15">
+        <v>769</v>
+      </c>
       <c r="T95" t="s" s="17">
-        <v>396</v>
-      </c>
-      <c r="U95" s="53"/>
-      <c r="V95" s="53"/>
+        <v>770</v>
+      </c>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
     </row>
     <row r="96" ht="20.25" customHeight="1">
       <c r="A96" s="13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="13">
         <f>J96</f>
@@ -11480,22 +11516,22 @@
       </c>
       <c r="C96" t="s" s="14">
         <f>CONCATENATE(E96," ",F96)</f>
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="D96" t="s" s="34">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E96" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F96" t="s" s="17">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="G96" t="s" s="17">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H96" t="s" s="17">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="I96" s="18">
         <v>100.5</v>
@@ -11504,7 +11540,7 @@
         <v>93.90000000000001</v>
       </c>
       <c r="K96" t="s" s="17">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="L96" s="16"/>
       <c r="M96" t="s" s="20">
@@ -11517,619 +11553,607 @@
       <c r="R96" s="34"/>
       <c r="S96" s="34"/>
       <c r="T96" t="s" s="17">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="U96" s="53"/>
       <c r="V96" s="53"/>
     </row>
     <row r="97" ht="20.25" customHeight="1">
       <c r="A97" s="13">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="13">
         <f>J97</f>
-        <v>145</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C97" t="s" s="14">
         <f>CONCATENATE(E97," ",F97)</f>
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D97" t="s" s="34">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="E97" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F97" t="s" s="17">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="G97" t="s" s="17">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="H97" t="s" s="17">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="I97" s="18">
-        <v>163.5</v>
+        <v>100.5</v>
       </c>
       <c r="J97" s="18">
-        <v>145</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K97" t="s" s="17">
-        <v>574</v>
+        <v>776</v>
       </c>
       <c r="L97" s="16"/>
       <c r="M97" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N97" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O97" t="s" s="34">
-        <v>575</v>
-      </c>
-      <c r="P97" t="s" s="34">
-        <v>576</v>
-      </c>
+      <c r="N97" s="16"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="59"/>
       <c r="Q97" s="17"/>
-      <c r="R97" t="s" s="34">
-        <v>775</v>
-      </c>
-      <c r="S97" t="s" s="34">
-        <v>578</v>
-      </c>
+      <c r="R97" s="34"/>
+      <c r="S97" s="34"/>
       <c r="T97" t="s" s="17">
-        <v>579</v>
+        <v>406</v>
       </c>
       <c r="U97" s="53"/>
       <c r="V97" s="53"/>
     </row>
-    <row r="98" ht="32.4" customHeight="1">
+    <row r="98" ht="20.25" customHeight="1">
       <c r="A98" s="13">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="13">
         <f>J98</f>
-        <v>27.82</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s" s="14">
         <f>CONCATENATE(E98," ",F98)</f>
-        <v>776</v>
-      </c>
-      <c r="D98" t="s" s="14">
-        <v>777</v>
+        <v>782</v>
+      </c>
+      <c r="D98" t="s" s="34">
+        <v>783</v>
       </c>
       <c r="E98" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="F98" t="s" s="14">
-        <v>778</v>
-      </c>
-      <c r="G98" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="H98" t="s" s="14">
-        <v>58</v>
+        <v>323</v>
+      </c>
+      <c r="F98" t="s" s="17">
+        <v>781</v>
+      </c>
+      <c r="G98" t="s" s="17">
+        <v>780</v>
+      </c>
+      <c r="H98" t="s" s="17">
+        <v>781</v>
       </c>
       <c r="I98" s="18">
-        <v>33.9</v>
-      </c>
-      <c r="J98" s="22">
-        <v>27.82</v>
+        <v>163.5</v>
+      </c>
+      <c r="J98" s="18">
+        <v>145</v>
       </c>
       <c r="K98" t="s" s="17">
-        <v>779</v>
-      </c>
-      <c r="L98" t="s" s="17">
-        <v>780</v>
-      </c>
+        <v>583</v>
+      </c>
+      <c r="L98" s="16"/>
       <c r="M98" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N98" t="s" s="17">
-        <v>347</v>
-      </c>
-      <c r="O98" t="s" s="17">
-        <v>781</v>
-      </c>
-      <c r="P98" t="s" s="17">
-        <v>782</v>
+        <v>220</v>
+      </c>
+      <c r="O98" t="s" s="34">
+        <v>584</v>
+      </c>
+      <c r="P98" t="s" s="34">
+        <v>585</v>
       </c>
       <c r="Q98" s="17"/>
-      <c r="R98" t="s" s="17">
-        <v>783</v>
-      </c>
-      <c r="S98" t="s" s="17">
+      <c r="R98" t="s" s="34">
         <v>784</v>
       </c>
-      <c r="T98" t="s" s="14">
-        <v>785</v>
-      </c>
-      <c r="U98" t="s" s="17">
-        <v>786</v>
-      </c>
-      <c r="V98" s="17"/>
+      <c r="S98" t="s" s="34">
+        <v>587</v>
+      </c>
+      <c r="T98" t="s" s="17">
+        <v>588</v>
+      </c>
+      <c r="U98" s="53"/>
+      <c r="V98" s="53"/>
     </row>
-    <row r="99" ht="20.25" customHeight="1">
+    <row r="99" ht="32.4" customHeight="1">
       <c r="A99" s="13">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="13">
         <f>J99</f>
-        <v>83.59999999999999</v>
+        <v>27.82</v>
       </c>
       <c r="C99" t="s" s="14">
         <f>CONCATENATE(E99," ",F99)</f>
+        <v>785</v>
+      </c>
+      <c r="D99" t="s" s="14">
+        <v>786</v>
+      </c>
+      <c r="E99" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="F99" t="s" s="14">
         <v>787</v>
       </c>
-      <c r="D99" t="s" s="14">
+      <c r="G99" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s" s="14">
+        <v>58</v>
+      </c>
+      <c r="I99" s="18">
+        <v>33.9</v>
+      </c>
+      <c r="J99" s="22">
+        <v>27.82</v>
+      </c>
+      <c r="K99" t="s" s="17">
         <v>788</v>
       </c>
-      <c r="E99" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F99" t="s" s="14">
+      <c r="L99" t="s" s="17">
         <v>789</v>
       </c>
-      <c r="G99" t="s" s="57">
-        <v>344</v>
-      </c>
-      <c r="H99" t="s" s="42">
-        <v>706</v>
-      </c>
-      <c r="I99" s="18">
-        <v>86.3</v>
-      </c>
-      <c r="J99" s="22">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="K99" t="s" s="17">
-        <v>447</v>
-      </c>
-      <c r="L99" s="17"/>
       <c r="M99" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N99" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="O99" t="s" s="25">
+        <v>357</v>
+      </c>
+      <c r="O99" t="s" s="17">
         <v>790</v>
       </c>
-      <c r="P99" t="s" s="25">
+      <c r="P99" t="s" s="17">
         <v>791</v>
       </c>
       <c r="Q99" s="17"/>
-      <c r="R99" t="s" s="25">
+      <c r="R99" t="s" s="17">
         <v>792</v>
       </c>
-      <c r="S99" s="17"/>
+      <c r="S99" t="s" s="17">
+        <v>793</v>
+      </c>
       <c r="T99" t="s" s="14">
-        <v>793</v>
-      </c>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
+        <v>794</v>
+      </c>
+      <c r="U99" t="s" s="17">
+        <v>795</v>
+      </c>
+      <c r="V99" s="17"/>
     </row>
     <row r="100" ht="20.25" customHeight="1">
       <c r="A100" s="13">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="13">
         <f>J100</f>
-        <v>72.09999999999999</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="C100" t="s" s="14">
         <f>CONCATENATE(E100," ",F100)</f>
-        <v>787</v>
-      </c>
-      <c r="D100" t="s" s="60">
-        <v>794</v>
+        <v>796</v>
+      </c>
+      <c r="D100" t="s" s="14">
+        <v>797</v>
       </c>
       <c r="E100" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F100" t="s" s="60">
-        <v>789</v>
+        <v>323</v>
+      </c>
+      <c r="F100" t="s" s="14">
+        <v>798</v>
       </c>
       <c r="G100" t="s" s="57">
-        <v>344</v>
-      </c>
-      <c r="H100" t="s" s="60">
-        <v>706</v>
+        <v>354</v>
+      </c>
+      <c r="H100" t="s" s="42">
+        <v>715</v>
       </c>
       <c r="I100" s="18">
+        <v>86.3</v>
+      </c>
+      <c r="J100" s="22">
         <v>83.59999999999999</v>
       </c>
-      <c r="J100" s="30">
-        <v>72.09999999999999</v>
-      </c>
       <c r="K100" t="s" s="17">
-        <v>795</v>
-      </c>
-      <c r="L100" s="29"/>
-      <c r="M100" t="s" s="26">
+        <v>457</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N100" t="s" s="27">
-        <v>33</v>
+      <c r="N100" t="s" s="17">
+        <v>71</v>
       </c>
       <c r="O100" t="s" s="25">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="P100" t="s" s="25">
-        <v>797</v>
-      </c>
-      <c r="Q100" s="29"/>
+        <v>800</v>
+      </c>
+      <c r="Q100" s="17"/>
       <c r="R100" t="s" s="25">
-        <v>798</v>
-      </c>
-      <c r="S100" s="16"/>
-      <c r="T100" t="s" s="17">
-        <v>799</v>
+        <v>801</v>
+      </c>
+      <c r="S100" s="17"/>
+      <c r="T100" t="s" s="14">
+        <v>802</v>
       </c>
       <c r="U100" s="16"/>
       <c r="V100" s="16"/>
     </row>
     <row r="101" ht="20.25" customHeight="1">
       <c r="A101" s="13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="13">
         <f>J101</f>
-        <v>163.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C101" t="s" s="14">
         <f>CONCATENATE(E101," ",F101)</f>
-        <v>800</v>
-      </c>
-      <c r="D101" t="s" s="17">
-        <v>801</v>
+        <v>796</v>
+      </c>
+      <c r="D101" t="s" s="60">
+        <v>803</v>
       </c>
       <c r="E101" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F101" t="s" s="17">
-        <v>802</v>
-      </c>
-      <c r="G101" t="s" s="17">
-        <v>68</v>
-      </c>
-      <c r="H101" t="s" s="17">
-        <v>802</v>
+        <v>323</v>
+      </c>
+      <c r="F101" t="s" s="60">
+        <v>798</v>
+      </c>
+      <c r="G101" t="s" s="57">
+        <v>354</v>
+      </c>
+      <c r="H101" t="s" s="60">
+        <v>715</v>
       </c>
       <c r="I101" s="18">
-        <v>174.1</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J101" s="30">
-        <v>163.5</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K101" t="s" s="17">
-        <v>259</v>
+        <v>804</v>
       </c>
       <c r="L101" s="29"/>
       <c r="M101" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N101" t="s" s="27">
-        <v>185</v>
-      </c>
-      <c r="O101" s="17"/>
-      <c r="P101" t="s" s="17">
-        <v>803</v>
-      </c>
-      <c r="Q101" s="17"/>
-      <c r="R101" s="17"/>
-      <c r="S101" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="O101" t="s" s="25">
+        <v>805</v>
+      </c>
+      <c r="P101" t="s" s="25">
+        <v>806</v>
+      </c>
+      <c r="Q101" s="29"/>
+      <c r="R101" t="s" s="25">
+        <v>807</v>
+      </c>
+      <c r="S101" s="16"/>
       <c r="T101" t="s" s="17">
-        <v>666</v>
-      </c>
-      <c r="U101" s="17"/>
-      <c r="V101" s="17"/>
+        <v>808</v>
+      </c>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
     </row>
     <row r="102" ht="20.25" customHeight="1">
       <c r="A102" s="13">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="13">
         <f>J102</f>
-        <v>168.3</v>
+        <v>163.5</v>
       </c>
       <c r="C102" t="s" s="14">
         <f>CONCATENATE(E102," ",F102)</f>
-        <v>804</v>
-      </c>
-      <c r="D102" t="s" s="61">
-        <v>805</v>
+        <v>809</v>
+      </c>
+      <c r="D102" t="s" s="17">
+        <v>810</v>
       </c>
       <c r="E102" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F102" t="s" s="17">
-        <v>806</v>
-      </c>
-      <c r="G102" t="s" s="27">
-        <v>30</v>
+        <v>811</v>
+      </c>
+      <c r="G102" t="s" s="17">
+        <v>68</v>
       </c>
       <c r="H102" t="s" s="17">
-        <v>806</v>
-      </c>
-      <c r="I102" s="13">
-        <v>170.3</v>
-      </c>
-      <c r="J102" s="22">
-        <v>168.3</v>
-      </c>
-      <c r="K102" t="s" s="23">
-        <v>184</v>
+        <v>811</v>
+      </c>
+      <c r="I102" s="18">
+        <v>174.1</v>
+      </c>
+      <c r="J102" s="30">
+        <v>163.5</v>
+      </c>
+      <c r="K102" t="s" s="17">
+        <v>269</v>
       </c>
       <c r="L102" s="29"/>
-      <c r="M102" t="s" s="54">
+      <c r="M102" t="s" s="26">
         <v>32</v>
       </c>
-      <c r="N102" t="s" s="55">
+      <c r="N102" t="s" s="27">
         <v>185</v>
       </c>
-      <c r="O102" t="s" s="17">
-        <v>807</v>
-      </c>
+      <c r="O102" s="17"/>
       <c r="P102" t="s" s="17">
-        <v>808</v>
-      </c>
-      <c r="Q102" t="s" s="27">
-        <v>117</v>
-      </c>
-      <c r="R102" t="s" s="17">
-        <v>809</v>
-      </c>
-      <c r="S102" t="s" s="23">
-        <v>189</v>
-      </c>
+        <v>812</v>
+      </c>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="17"/>
       <c r="T102" t="s" s="17">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="U102" s="17"/>
       <c r="V102" s="17"/>
     </row>
     <row r="103" ht="20.25" customHeight="1">
       <c r="A103" s="13">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="13">
         <f>J103</f>
-        <v>89.8</v>
+        <v>168.3</v>
       </c>
       <c r="C103" t="s" s="14">
         <f>CONCATENATE(E103," ",F103)</f>
-        <v>810</v>
-      </c>
-      <c r="D103" t="s" s="14">
-        <v>811</v>
+        <v>813</v>
+      </c>
+      <c r="D103" t="s" s="61">
+        <v>814</v>
       </c>
       <c r="E103" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F103" t="s" s="14">
-        <v>812</v>
-      </c>
-      <c r="G103" t="s" s="14">
-        <v>556</v>
-      </c>
-      <c r="H103" t="s" s="14">
-        <v>557</v>
-      </c>
-      <c r="I103" s="18">
-        <v>93.90000000000001</v>
+        <v>323</v>
+      </c>
+      <c r="F103" t="s" s="17">
+        <v>815</v>
+      </c>
+      <c r="G103" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s" s="17">
+        <v>815</v>
+      </c>
+      <c r="I103" s="13">
+        <v>170.3</v>
       </c>
       <c r="J103" s="22">
-        <v>89.8</v>
-      </c>
-      <c r="K103" t="s" s="17">
-        <v>813</v>
-      </c>
-      <c r="L103" s="16"/>
-      <c r="M103" t="s" s="20">
+        <v>168.3</v>
+      </c>
+      <c r="K103" t="s" s="23">
+        <v>184</v>
+      </c>
+      <c r="L103" s="29"/>
+      <c r="M103" t="s" s="54">
         <v>32</v>
       </c>
-      <c r="N103" t="s" s="17">
-        <v>71</v>
+      <c r="N103" t="s" s="55">
+        <v>185</v>
       </c>
       <c r="O103" t="s" s="17">
-        <v>671</v>
-      </c>
-      <c r="P103" s="16"/>
-      <c r="Q103" s="16"/>
+        <v>816</v>
+      </c>
+      <c r="P103" t="s" s="17">
+        <v>817</v>
+      </c>
+      <c r="Q103" t="s" s="27">
+        <v>117</v>
+      </c>
       <c r="R103" t="s" s="17">
-        <v>814</v>
-      </c>
-      <c r="S103" s="16"/>
-      <c r="T103" t="s" s="14">
-        <v>815</v>
+        <v>818</v>
+      </c>
+      <c r="S103" t="s" s="23">
+        <v>189</v>
+      </c>
+      <c r="T103" t="s" s="17">
+        <v>675</v>
       </c>
       <c r="U103" s="17"/>
       <c r="V103" s="17"/>
     </row>
     <row r="104" ht="20.25" customHeight="1">
       <c r="A104" s="13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="13">
         <f>J104</f>
-        <v>56</v>
+        <v>89.8</v>
       </c>
       <c r="C104" t="s" s="14">
         <f>CONCATENATE(E104," ",F104)</f>
-        <v>816</v>
-      </c>
-      <c r="D104" t="s" s="25">
-        <v>817</v>
+        <v>819</v>
+      </c>
+      <c r="D104" t="s" s="14">
+        <v>820</v>
       </c>
       <c r="E104" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F104" t="s" s="17">
-        <v>304</v>
-      </c>
-      <c r="G104" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="H104" t="s" s="40">
-        <v>304</v>
+        <v>323</v>
+      </c>
+      <c r="F104" t="s" s="14">
+        <v>821</v>
+      </c>
+      <c r="G104" t="s" s="14">
+        <v>565</v>
+      </c>
+      <c r="H104" t="s" s="14">
+        <v>566</v>
       </c>
       <c r="I104" s="18">
-        <v>59.2</v>
-      </c>
-      <c r="J104" s="18">
-        <v>56</v>
+        <v>93.90000000000001</v>
+      </c>
+      <c r="J104" s="22">
+        <v>89.8</v>
       </c>
       <c r="K104" t="s" s="17">
-        <v>818</v>
-      </c>
-      <c r="L104" s="17"/>
+        <v>822</v>
+      </c>
+      <c r="L104" s="16"/>
       <c r="M104" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N104" t="s" s="17">
         <v>71</v>
       </c>
-      <c r="O104" t="s" s="25">
-        <v>819</v>
-      </c>
-      <c r="P104" t="s" s="25">
-        <v>758</v>
-      </c>
-      <c r="Q104" t="s" s="17">
-        <v>146</v>
-      </c>
-      <c r="R104" t="s" s="25">
-        <v>820</v>
-      </c>
-      <c r="S104" t="s" s="25">
-        <v>75</v>
-      </c>
-      <c r="T104" t="s" s="17">
-        <v>821</v>
-      </c>
-      <c r="U104" s="16"/>
-      <c r="V104" s="16"/>
+      <c r="O104" t="s" s="17">
+        <v>680</v>
+      </c>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" t="s" s="17">
+        <v>823</v>
+      </c>
+      <c r="S104" s="16"/>
+      <c r="T104" t="s" s="14">
+        <v>824</v>
+      </c>
+      <c r="U104" s="17"/>
+      <c r="V104" s="17"/>
     </row>
     <row r="105" ht="20.25" customHeight="1">
       <c r="A105" s="13">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="13">
         <f>J105</f>
-        <v>100.5</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s" s="14">
         <f>CONCATENATE(E105," ",F105)</f>
-        <v>816</v>
-      </c>
-      <c r="D105" t="s" s="15">
-        <v>822</v>
+        <v>825</v>
+      </c>
+      <c r="D105" t="s" s="25">
+        <v>826</v>
       </c>
       <c r="E105" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F105" t="s" s="17">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="G105" t="s" s="27">
         <v>30</v>
       </c>
       <c r="H105" t="s" s="40">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="I105" s="18">
-        <v>113</v>
+        <v>59.2</v>
       </c>
       <c r="J105" s="18">
-        <v>100.5</v>
+        <v>56</v>
       </c>
       <c r="K105" t="s" s="17">
-        <v>612</v>
-      </c>
-      <c r="L105" s="16"/>
+        <v>827</v>
+      </c>
+      <c r="L105" s="17"/>
       <c r="M105" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N105" t="s" s="17">
-        <v>501</v>
-      </c>
-      <c r="O105" t="s" s="28">
-        <v>502</v>
-      </c>
-      <c r="P105" t="s" s="17">
-        <v>503</v>
-      </c>
-      <c r="Q105" s="17"/>
-      <c r="R105" t="s" s="15">
-        <v>823</v>
-      </c>
-      <c r="S105" t="s" s="15">
-        <v>824</v>
+        <v>71</v>
+      </c>
+      <c r="O105" t="s" s="25">
+        <v>828</v>
+      </c>
+      <c r="P105" t="s" s="25">
+        <v>767</v>
+      </c>
+      <c r="Q105" t="s" s="17">
+        <v>146</v>
+      </c>
+      <c r="R105" t="s" s="25">
+        <v>829</v>
+      </c>
+      <c r="S105" t="s" s="25">
+        <v>75</v>
       </c>
       <c r="T105" t="s" s="17">
-        <v>825</v>
-      </c>
-      <c r="U105" t="s" s="17">
-        <v>826</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="U105" s="16"/>
       <c r="V105" s="16"/>
     </row>
     <row r="106" ht="20.25" customHeight="1">
       <c r="A106" s="13">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="13">
         <f>J106</f>
-        <v>145</v>
+        <v>100.5</v>
       </c>
       <c r="C106" t="s" s="14">
         <f>CONCATENATE(E106," ",F106)</f>
-        <v>827</v>
-      </c>
-      <c r="D106" t="s" s="17">
-        <v>828</v>
+        <v>825</v>
+      </c>
+      <c r="D106" t="s" s="15">
+        <v>831</v>
       </c>
       <c r="E106" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F106" t="s" s="17">
-        <v>829</v>
-      </c>
-      <c r="G106" t="s" s="17">
-        <v>103</v>
-      </c>
-      <c r="H106" t="s" s="17">
-        <v>829</v>
+        <v>314</v>
+      </c>
+      <c r="G106" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s" s="40">
+        <v>314</v>
       </c>
       <c r="I106" s="18">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="J106" s="18">
-        <v>145</v>
+        <v>100.5</v>
       </c>
       <c r="K106" t="s" s="17">
-        <v>830</v>
-      </c>
-      <c r="L106" s="17"/>
+        <v>621</v>
+      </c>
+      <c r="L106" s="16"/>
       <c r="M106" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N106" t="s" s="17">
-        <v>362</v>
-      </c>
-      <c r="O106" t="s" s="17">
-        <v>831</v>
-      </c>
-      <c r="P106" s="16"/>
-      <c r="Q106" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="R106" t="s" s="17">
+        <v>511</v>
+      </c>
+      <c r="O106" t="s" s="28">
+        <v>512</v>
+      </c>
+      <c r="P106" t="s" s="17">
+        <v>513</v>
+      </c>
+      <c r="Q106" s="17"/>
+      <c r="R106" t="s" s="15">
         <v>832</v>
       </c>
-      <c r="S106" t="s" s="17">
+      <c r="S106" t="s" s="15">
         <v>833</v>
       </c>
       <c r="T106" t="s" s="17">
@@ -12138,135 +12162,131 @@
       <c r="U106" t="s" s="17">
         <v>835</v>
       </c>
-      <c r="V106" t="s" s="17">
-        <v>415</v>
-      </c>
+      <c r="V106" s="16"/>
     </row>
     <row r="107" ht="20.25" customHeight="1">
       <c r="A107" s="13">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="13">
         <f>J107</f>
-        <v>33.9</v>
+        <v>145</v>
       </c>
       <c r="C107" t="s" s="14">
         <f>CONCATENATE(E107," ",F107)</f>
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="D107" t="s" s="17">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E107" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F107" t="s" s="17">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="G107" t="s" s="17">
         <v>103</v>
       </c>
       <c r="H107" t="s" s="17">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="I107" s="18">
-        <v>37.8</v>
+        <v>163</v>
       </c>
       <c r="J107" s="18">
-        <v>33.9</v>
+        <v>145</v>
       </c>
       <c r="K107" t="s" s="17">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="L107" s="17"/>
       <c r="M107" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N107" t="s" s="17">
-        <v>71</v>
-      </c>
-      <c r="O107" s="16"/>
-      <c r="P107" t="s" s="17">
-        <v>838</v>
-      </c>
-      <c r="Q107" s="16"/>
-      <c r="R107" s="16"/>
+        <v>372</v>
+      </c>
+      <c r="O107" t="s" s="17">
+        <v>840</v>
+      </c>
+      <c r="P107" s="16"/>
+      <c r="Q107" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="R107" t="s" s="17">
+        <v>841</v>
+      </c>
       <c r="S107" t="s" s="17">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="T107" t="s" s="17">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="U107" t="s" s="17">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="V107" t="s" s="17">
-        <v>841</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" ht="20.25" customHeight="1">
       <c r="A108" s="13">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="13">
         <f>J108</f>
-        <v>66</v>
+        <v>33.9</v>
       </c>
       <c r="C108" t="s" s="14">
         <f>CONCATENATE(E108," ",F108)</f>
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="D108" t="s" s="17">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="E108" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F108" t="s" s="17">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="G108" t="s" s="17">
         <v>103</v>
       </c>
       <c r="H108" t="s" s="17">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="I108" s="18">
-        <v>89.8</v>
+        <v>37.8</v>
       </c>
       <c r="J108" s="18">
-        <v>66</v>
+        <v>33.9</v>
       </c>
       <c r="K108" t="s" s="17">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="L108" s="17"/>
       <c r="M108" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N108" t="s" s="17">
-        <v>354</v>
-      </c>
-      <c r="O108" t="s" s="17">
+        <v>71</v>
+      </c>
+      <c r="O108" s="16"/>
+      <c r="P108" t="s" s="17">
+        <v>847</v>
+      </c>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" t="s" s="17">
+        <v>848</v>
+      </c>
+      <c r="T108" t="s" s="17">
+        <v>849</v>
+      </c>
+      <c r="U108" t="s" s="17">
         <v>844</v>
-      </c>
-      <c r="P108" t="s" s="17">
-        <v>845</v>
-      </c>
-      <c r="Q108" t="s" s="17">
-        <v>36</v>
-      </c>
-      <c r="R108" t="s" s="17">
-        <v>846</v>
-      </c>
-      <c r="S108" t="s" s="17">
-        <v>847</v>
-      </c>
-      <c r="T108" t="s" s="17">
-        <v>848</v>
-      </c>
-      <c r="U108" t="s" s="17">
-        <v>849</v>
       </c>
       <c r="V108" t="s" s="17">
         <v>850</v>
@@ -12274,134 +12294,144 @@
     </row>
     <row r="109" ht="20.25" customHeight="1">
       <c r="A109" s="13">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="13">
         <f>J109</f>
-        <v>93.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s" s="14">
         <f>CONCATENATE(E109," ",F109)</f>
+        <v>836</v>
+      </c>
+      <c r="D109" t="s" s="17">
         <v>851</v>
       </c>
-      <c r="D109" t="s" s="38">
-        <v>852</v>
-      </c>
       <c r="E109" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F109" t="s" s="17">
-        <v>853</v>
+        <v>838</v>
       </c>
       <c r="G109" t="s" s="17">
         <v>103</v>
       </c>
       <c r="H109" t="s" s="17">
-        <v>590</v>
+        <v>838</v>
       </c>
       <c r="I109" s="18">
-        <v>100.5</v>
+        <v>89.8</v>
       </c>
       <c r="J109" s="18">
-        <v>93.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="K109" t="s" s="17">
-        <v>767</v>
+        <v>852</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N109" s="17"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="17"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="15"/>
+      <c r="N109" t="s" s="17">
+        <v>364</v>
+      </c>
+      <c r="O109" t="s" s="17">
+        <v>853</v>
+      </c>
+      <c r="P109" t="s" s="17">
+        <v>854</v>
+      </c>
+      <c r="Q109" t="s" s="17">
+        <v>36</v>
+      </c>
+      <c r="R109" t="s" s="17">
+        <v>855</v>
+      </c>
+      <c r="S109" t="s" s="17">
+        <v>856</v>
+      </c>
       <c r="T109" t="s" s="17">
-        <v>854</v>
-      </c>
-      <c r="U109" s="16"/>
-      <c r="V109" s="16"/>
+        <v>857</v>
+      </c>
+      <c r="U109" t="s" s="17">
+        <v>858</v>
+      </c>
+      <c r="V109" t="s" s="17">
+        <v>859</v>
+      </c>
     </row>
     <row r="110" ht="20.25" customHeight="1">
       <c r="A110" s="13">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="13">
         <f>J110</f>
-        <v>56</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="C110" t="s" s="14">
         <f>CONCATENATE(E110," ",F110)</f>
-        <v>855</v>
-      </c>
-      <c r="D110" t="s" s="14">
-        <v>856</v>
+        <v>860</v>
+      </c>
+      <c r="D110" t="s" s="38">
+        <v>861</v>
       </c>
       <c r="E110" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F110" t="s" s="27">
-        <v>857</v>
-      </c>
-      <c r="G110" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="H110" t="s" s="27">
-        <v>94</v>
+        <v>323</v>
+      </c>
+      <c r="F110" t="s" s="17">
+        <v>862</v>
+      </c>
+      <c r="G110" t="s" s="17">
+        <v>103</v>
+      </c>
+      <c r="H110" t="s" s="17">
+        <v>599</v>
       </c>
       <c r="I110" s="18">
-        <v>59.2</v>
+        <v>100.5</v>
       </c>
       <c r="J110" s="18">
-        <v>56</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="K110" t="s" s="17">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="L110" s="17"/>
       <c r="M110" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N110" t="s" s="17">
-        <v>715</v>
-      </c>
-      <c r="O110" t="s" s="62">
-        <v>858</v>
-      </c>
-      <c r="P110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="15"/>
       <c r="Q110" s="17"/>
-      <c r="R110" t="s" s="17">
-        <v>859</v>
-      </c>
-      <c r="S110" s="17"/>
-      <c r="T110" t="s" s="14">
-        <v>860</v>
-      </c>
-      <c r="U110" s="17"/>
-      <c r="V110" s="17"/>
+      <c r="R110" s="15"/>
+      <c r="S110" s="15"/>
+      <c r="T110" t="s" s="17">
+        <v>863</v>
+      </c>
+      <c r="U110" s="16"/>
+      <c r="V110" s="16"/>
     </row>
     <row r="111" ht="20.25" customHeight="1">
       <c r="A111" s="13">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="13">
         <f>J111</f>
-        <v>41.2</v>
+        <v>56</v>
       </c>
       <c r="C111" t="s" s="14">
         <f>CONCATENATE(E111," ",F111)</f>
-        <v>855</v>
-      </c>
-      <c r="D111" t="s" s="31">
-        <v>861</v>
+        <v>864</v>
+      </c>
+      <c r="D111" t="s" s="14">
+        <v>865</v>
       </c>
       <c r="E111" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F111" t="s" s="27">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="G111" t="s" s="27">
         <v>30</v>
@@ -12410,199 +12440,197 @@
         <v>94</v>
       </c>
       <c r="I111" s="18">
-        <v>47.8</v>
+        <v>59.2</v>
       </c>
       <c r="J111" s="18">
-        <v>41.2</v>
+        <v>56</v>
       </c>
       <c r="K111" t="s" s="17">
-        <v>207</v>
-      </c>
-      <c r="L111" s="29"/>
-      <c r="M111" t="s" s="26">
+        <v>765</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N111" t="s" s="27">
-        <v>243</v>
-      </c>
-      <c r="O111" t="s" s="28">
-        <v>862</v>
-      </c>
-      <c r="P111" t="s" s="28">
-        <v>492</v>
-      </c>
-      <c r="Q111" s="29"/>
+      <c r="N111" t="s" s="17">
+        <v>724</v>
+      </c>
+      <c r="O111" t="s" s="62">
+        <v>867</v>
+      </c>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
       <c r="R111" t="s" s="17">
-        <v>863</v>
-      </c>
-      <c r="S111" t="s" s="17">
-        <v>272</v>
-      </c>
-      <c r="T111" t="s" s="17">
-        <v>864</v>
-      </c>
-      <c r="U111" s="16"/>
-      <c r="V111" s="16"/>
+        <v>868</v>
+      </c>
+      <c r="S111" s="17"/>
+      <c r="T111" t="s" s="14">
+        <v>869</v>
+      </c>
+      <c r="U111" s="17"/>
+      <c r="V111" s="17"/>
     </row>
     <row r="112" ht="20.25" customHeight="1">
       <c r="A112" s="13">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="13">
         <f>J112</f>
-        <v>251.9</v>
+        <v>41.2</v>
       </c>
       <c r="C112" t="s" s="14">
         <f>CONCATENATE(E112," ",F112)</f>
-        <v>563</v>
-      </c>
-      <c r="D112" t="s" s="63">
-        <v>865</v>
+        <v>864</v>
+      </c>
+      <c r="D112" t="s" s="31">
+        <v>870</v>
       </c>
       <c r="E112" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F112" t="s" s="27">
-        <v>557</v>
-      </c>
-      <c r="G112" t="s" s="14">
-        <v>556</v>
+        <v>866</v>
+      </c>
+      <c r="G112" t="s" s="27">
+        <v>30</v>
       </c>
       <c r="H112" t="s" s="27">
-        <v>557</v>
+        <v>94</v>
       </c>
       <c r="I112" s="18">
-        <v>298.9</v>
-      </c>
-      <c r="J112" s="22">
-        <v>251.9</v>
+        <v>47.8</v>
+      </c>
+      <c r="J112" s="18">
+        <v>41.2</v>
       </c>
       <c r="K112" t="s" s="17">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="L112" s="29"/>
       <c r="M112" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N112" t="s" s="27">
-        <v>243</v>
-      </c>
-      <c r="O112" t="s" s="64">
-        <v>866</v>
-      </c>
-      <c r="P112" t="s" s="64">
-        <v>867</v>
-      </c>
-      <c r="Q112" t="s" s="27">
-        <v>117</v>
-      </c>
-      <c r="R112" t="s" s="28">
-        <v>868</v>
-      </c>
-      <c r="S112" t="s" s="15">
-        <v>869</v>
+        <v>220</v>
+      </c>
+      <c r="O112" t="s" s="28">
+        <v>871</v>
+      </c>
+      <c r="P112" t="s" s="28">
+        <v>502</v>
+      </c>
+      <c r="Q112" s="29"/>
+      <c r="R112" t="s" s="17">
+        <v>872</v>
+      </c>
+      <c r="S112" t="s" s="17">
+        <v>282</v>
       </c>
       <c r="T112" t="s" s="17">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="U112" s="16"/>
       <c r="V112" s="16"/>
     </row>
     <row r="113" ht="20.25" customHeight="1">
       <c r="A113" s="13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="13">
         <f>J113</f>
-        <v>37.8</v>
+        <v>251.9</v>
       </c>
       <c r="C113" t="s" s="14">
         <f>CONCATENATE(E113," ",F113)</f>
-        <v>84</v>
-      </c>
-      <c r="D113" t="s" s="60">
-        <v>871</v>
+        <v>572</v>
+      </c>
+      <c r="D113" t="s" s="63">
+        <v>874</v>
       </c>
       <c r="E113" t="s" s="17">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="F113" t="s" s="27">
-        <v>86</v>
-      </c>
-      <c r="G113" t="s" s="17">
-        <v>30</v>
+        <v>566</v>
+      </c>
+      <c r="G113" t="s" s="14">
+        <v>565</v>
       </c>
       <c r="H113" t="s" s="27">
-        <v>86</v>
+        <v>566</v>
       </c>
       <c r="I113" s="18">
-        <v>47.8</v>
-      </c>
-      <c r="J113" s="30">
-        <v>37.8</v>
+        <v>298.9</v>
+      </c>
+      <c r="J113" s="22">
+        <v>251.9</v>
       </c>
       <c r="K113" t="s" s="17">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="L113" s="29"/>
       <c r="M113" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N113" t="s" s="27">
-        <v>95</v>
-      </c>
-      <c r="O113" t="s" s="25">
-        <v>88</v>
-      </c>
-      <c r="P113" t="s" s="25">
-        <v>872</v>
-      </c>
-      <c r="Q113" s="29"/>
-      <c r="R113" t="s" s="25">
-        <v>873</v>
-      </c>
-      <c r="S113" s="65"/>
+        <v>220</v>
+      </c>
+      <c r="O113" t="s" s="64">
+        <v>875</v>
+      </c>
+      <c r="P113" t="s" s="64">
+        <v>876</v>
+      </c>
+      <c r="Q113" t="s" s="27">
+        <v>117</v>
+      </c>
+      <c r="R113" t="s" s="28">
+        <v>877</v>
+      </c>
+      <c r="S113" t="s" s="15">
+        <v>878</v>
+      </c>
       <c r="T113" t="s" s="17">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="U113" s="16"/>
       <c r="V113" s="16"/>
     </row>
     <row r="114" ht="20.25" customHeight="1">
       <c r="A114" s="13">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="13">
         <f>J114</f>
-        <v>86.3</v>
+        <v>37.8</v>
       </c>
       <c r="C114" t="s" s="14">
         <f>CONCATENATE(E114," ",F114)</f>
-        <v>875</v>
+        <v>84</v>
       </c>
       <c r="D114" t="s" s="60">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="E114" t="s" s="17">
         <v>56</v>
       </c>
-      <c r="F114" t="s" s="17">
-        <v>802</v>
+      <c r="F114" t="s" s="27">
+        <v>86</v>
       </c>
       <c r="G114" t="s" s="17">
-        <v>68</v>
-      </c>
-      <c r="H114" t="s" s="17">
-        <v>802</v>
+        <v>30</v>
+      </c>
+      <c r="H114" t="s" s="27">
+        <v>86</v>
       </c>
       <c r="I114" s="18">
-        <v>89.8</v>
-      </c>
-      <c r="J114" s="18">
-        <v>86.3</v>
+        <v>47.8</v>
+      </c>
+      <c r="J114" s="30">
+        <v>37.8</v>
       </c>
       <c r="K114" t="s" s="17">
-        <v>688</v>
+        <v>87</v>
       </c>
       <c r="L114" s="29"/>
       <c r="M114" t="s" s="26">
@@ -12611,79 +12639,79 @@
       <c r="N114" t="s" s="27">
         <v>95</v>
       </c>
-      <c r="O114" t="s" s="15">
-        <v>877</v>
-      </c>
-      <c r="P114" t="s" s="15">
-        <v>878</v>
+      <c r="O114" t="s" s="25">
+        <v>88</v>
+      </c>
+      <c r="P114" t="s" s="25">
+        <v>881</v>
       </c>
       <c r="Q114" s="29"/>
-      <c r="R114" t="s" s="15">
-        <v>879</v>
-      </c>
-      <c r="S114" t="s" s="15">
-        <v>75</v>
-      </c>
+      <c r="R114" t="s" s="25">
+        <v>882</v>
+      </c>
+      <c r="S114" s="65"/>
       <c r="T114" t="s" s="17">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="U114" s="16"/>
       <c r="V114" s="16"/>
     </row>
     <row r="115" ht="20.25" customHeight="1">
       <c r="A115" s="13">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="13">
         <f>J115</f>
-        <v>23.03</v>
+        <v>86.3</v>
       </c>
       <c r="C115" t="s" s="14">
         <f>CONCATENATE(E115," ",F115)</f>
-        <v>881</v>
-      </c>
-      <c r="D115" t="s" s="66">
-        <v>882</v>
+        <v>884</v>
+      </c>
+      <c r="D115" t="s" s="60">
+        <v>885</v>
       </c>
       <c r="E115" t="s" s="17">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="F115" t="s" s="17">
-        <v>883</v>
+        <v>811</v>
       </c>
       <c r="G115" t="s" s="17">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="H115" t="s" s="17">
-        <v>528</v>
+        <v>811</v>
       </c>
       <c r="I115" s="18">
-        <v>33.9</v>
+        <v>89.8</v>
       </c>
       <c r="J115" s="18">
-        <v>23.03</v>
+        <v>86.3</v>
       </c>
       <c r="K115" t="s" s="17">
-        <v>884</v>
+        <v>697</v>
       </c>
       <c r="L115" s="29"/>
-      <c r="M115" t="s" s="20">
+      <c r="M115" t="s" s="26">
         <v>32</v>
       </c>
       <c r="N115" t="s" s="27">
-        <v>885</v>
-      </c>
-      <c r="O115" t="s" s="67">
+        <v>95</v>
+      </c>
+      <c r="O115" t="s" s="15">
         <v>886</v>
       </c>
-      <c r="P115" t="s" s="67">
+      <c r="P115" t="s" s="15">
         <v>887</v>
       </c>
       <c r="Q115" s="29"/>
-      <c r="R115" t="s" s="67">
+      <c r="R115" t="s" s="15">
         <v>888</v>
       </c>
-      <c r="S115" s="65"/>
+      <c r="S115" t="s" s="15">
+        <v>75</v>
+      </c>
       <c r="T115" t="s" s="17">
         <v>889</v>
       </c>
@@ -12692,67 +12720,67 @@
     </row>
     <row r="116" ht="20.25" customHeight="1">
       <c r="A116" s="13">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="13">
         <f>J116</f>
-        <v>100.5</v>
+        <v>23.03</v>
       </c>
       <c r="C116" t="s" s="14">
         <f>CONCATENATE(E116," ",F116)</f>
         <v>890</v>
       </c>
-      <c r="D116" t="s" s="68">
+      <c r="D116" t="s" s="66">
         <v>891</v>
       </c>
       <c r="E116" t="s" s="17">
-        <v>56</v>
-      </c>
-      <c r="F116" t="s" s="14">
-        <v>557</v>
-      </c>
-      <c r="G116" t="s" s="14">
-        <v>556</v>
-      </c>
-      <c r="H116" t="s" s="14">
-        <v>557</v>
+        <v>323</v>
+      </c>
+      <c r="F116" t="s" s="17">
+        <v>892</v>
+      </c>
+      <c r="G116" t="s" s="17">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s" s="17">
+        <v>537</v>
       </c>
       <c r="I116" s="18">
-        <v>113</v>
+        <v>33.9</v>
       </c>
       <c r="J116" s="18">
-        <v>100.5</v>
+        <v>23.03</v>
       </c>
       <c r="K116" t="s" s="17">
-        <v>612</v>
+        <v>893</v>
       </c>
       <c r="L116" s="29"/>
       <c r="M116" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N116" t="s" s="27">
-        <v>287</v>
-      </c>
-      <c r="O116" t="s" s="69">
-        <v>892</v>
-      </c>
-      <c r="P116" t="s" s="70">
-        <v>893</v>
+        <v>894</v>
+      </c>
+      <c r="O116" t="s" s="67">
+        <v>895</v>
+      </c>
+      <c r="P116" t="s" s="67">
+        <v>896</v>
       </c>
       <c r="Q116" s="29"/>
-      <c r="R116" t="s" s="69">
-        <v>894</v>
+      <c r="R116" t="s" s="67">
+        <v>897</v>
       </c>
       <c r="S116" s="65"/>
       <c r="T116" t="s" s="17">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="U116" s="16"/>
       <c r="V116" s="16"/>
     </row>
     <row r="117" ht="20.25" customHeight="1">
       <c r="A117" s="13">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="13">
         <f>J117</f>
@@ -12760,22 +12788,22 @@
       </c>
       <c r="C117" t="s" s="14">
         <f>CONCATENATE(E117," ",F117)</f>
-        <v>896</v>
-      </c>
-      <c r="D117" t="s" s="71">
-        <v>897</v>
+        <v>899</v>
+      </c>
+      <c r="D117" t="s" s="68">
+        <v>900</v>
       </c>
       <c r="E117" t="s" s="17">
-        <v>313</v>
-      </c>
-      <c r="F117" t="s" s="17">
-        <v>898</v>
+        <v>56</v>
+      </c>
+      <c r="F117" t="s" s="14">
+        <v>566</v>
       </c>
       <c r="G117" t="s" s="14">
-        <v>556</v>
-      </c>
-      <c r="H117" t="s" s="17">
-        <v>727</v>
+        <v>565</v>
+      </c>
+      <c r="H117" t="s" s="14">
+        <v>566</v>
       </c>
       <c r="I117" s="18">
         <v>113</v>
@@ -12784,35 +12812,35 @@
         <v>100.5</v>
       </c>
       <c r="K117" t="s" s="17">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="L117" s="29"/>
       <c r="M117" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N117" t="s" s="27">
-        <v>287</v>
-      </c>
-      <c r="O117" t="s" s="70">
-        <v>899</v>
+        <v>297</v>
+      </c>
+      <c r="O117" t="s" s="69">
+        <v>901</v>
       </c>
       <c r="P117" t="s" s="70">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="Q117" s="29"/>
       <c r="R117" t="s" s="69">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="S117" s="65"/>
       <c r="T117" t="s" s="17">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="U117" s="16"/>
       <c r="V117" s="16"/>
     </row>
     <row r="118" ht="20.25" customHeight="1">
       <c r="A118" s="13">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="13">
         <f>J118</f>
@@ -12820,22 +12848,22 @@
       </c>
       <c r="C118" t="s" s="14">
         <f>CONCATENATE(E118," ",F118)</f>
-        <v>901</v>
-      </c>
-      <c r="D118" t="s" s="17">
-        <v>902</v>
+        <v>905</v>
+      </c>
+      <c r="D118" t="s" s="71">
+        <v>906</v>
       </c>
       <c r="E118" t="s" s="17">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="F118" t="s" s="17">
-        <v>315</v>
-      </c>
-      <c r="G118" t="s" s="17">
-        <v>30</v>
+        <v>907</v>
+      </c>
+      <c r="G118" t="s" s="14">
+        <v>565</v>
       </c>
       <c r="H118" t="s" s="17">
-        <v>315</v>
+        <v>736</v>
       </c>
       <c r="I118" s="18">
         <v>113</v>
@@ -12844,37 +12872,35 @@
         <v>100.5</v>
       </c>
       <c r="K118" t="s" s="17">
-        <v>903</v>
-      </c>
-      <c r="L118" s="19"/>
+        <v>621</v>
+      </c>
+      <c r="L118" s="29"/>
       <c r="M118" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="N118" t="s" s="17">
-        <v>501</v>
-      </c>
-      <c r="O118" t="s" s="25">
+      <c r="N118" t="s" s="27">
+        <v>297</v>
+      </c>
+      <c r="O118" t="s" s="70">
+        <v>908</v>
+      </c>
+      <c r="P118" t="s" s="70">
+        <v>902</v>
+      </c>
+      <c r="Q118" s="29"/>
+      <c r="R118" t="s" s="69">
+        <v>909</v>
+      </c>
+      <c r="S118" s="65"/>
+      <c r="T118" t="s" s="17">
         <v>904</v>
       </c>
-      <c r="P118" t="s" s="17">
-        <v>503</v>
-      </c>
-      <c r="Q118" t="s" s="17">
-        <v>146</v>
-      </c>
-      <c r="R118" t="s" s="25">
-        <v>905</v>
-      </c>
-      <c r="S118" t="s" s="25">
-        <v>906</v>
-      </c>
-      <c r="T118" s="17"/>
-      <c r="U118" s="17"/>
-      <c r="V118" s="17"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="16"/>
     </row>
     <row r="119" ht="20.25" customHeight="1">
       <c r="A119" s="13">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="13">
         <f>J119</f>
@@ -12882,142 +12908,138 @@
       </c>
       <c r="C119" t="s" s="14">
         <f>CONCATENATE(E119," ",F119)</f>
-        <v>907</v>
-      </c>
-      <c r="D119" t="s" s="38">
-        <v>908</v>
+        <v>910</v>
+      </c>
+      <c r="D119" t="s" s="17">
+        <v>911</v>
       </c>
       <c r="E119" t="s" s="17">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="F119" t="s" s="17">
-        <v>590</v>
+        <v>325</v>
       </c>
       <c r="G119" t="s" s="17">
-        <v>591</v>
+        <v>30</v>
       </c>
       <c r="H119" t="s" s="17">
-        <v>590</v>
+        <v>325</v>
       </c>
       <c r="I119" s="18">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="J119" s="18">
         <v>100.5</v>
       </c>
       <c r="K119" t="s" s="17">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="L119" s="19"/>
       <c r="M119" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N119" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O119" s="17"/>
-      <c r="P119" t="s" s="25">
-        <v>910</v>
+        <v>511</v>
+      </c>
+      <c r="O119" t="s" s="25">
+        <v>913</v>
+      </c>
+      <c r="P119" t="s" s="17">
+        <v>513</v>
       </c>
       <c r="Q119" t="s" s="17">
-        <v>911</v>
-      </c>
-      <c r="R119" t="s" s="15">
-        <v>912</v>
-      </c>
-      <c r="S119" s="17"/>
-      <c r="T119" t="s" s="17">
-        <v>913</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="R119" t="s" s="25">
+        <v>914</v>
+      </c>
+      <c r="S119" t="s" s="25">
+        <v>915</v>
+      </c>
+      <c r="T119" s="17"/>
       <c r="U119" s="17"/>
       <c r="V119" s="17"/>
     </row>
     <row r="120" ht="20.25" customHeight="1">
       <c r="A120" s="13">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="13">
         <f>J120</f>
-        <v>129.4</v>
+        <v>100.5</v>
       </c>
       <c r="C120" t="s" s="14">
         <f>CONCATENATE(E120," ",F120)</f>
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="D120" t="s" s="38">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="E120" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F120" t="s" s="17">
-        <v>916</v>
+        <v>599</v>
       </c>
       <c r="G120" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="H120" t="s" s="27">
-        <v>86</v>
+        <v>600</v>
+      </c>
+      <c r="H120" t="s" s="17">
+        <v>599</v>
       </c>
       <c r="I120" s="18">
         <v>145</v>
       </c>
       <c r="J120" s="18">
-        <v>129.4</v>
+        <v>100.5</v>
       </c>
       <c r="K120" t="s" s="17">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L120" s="19"/>
       <c r="M120" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N120" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O120" t="s" s="17">
-        <v>918</v>
-      </c>
-      <c r="P120" t="s" s="17">
+        <v>220</v>
+      </c>
+      <c r="O120" s="17"/>
+      <c r="P120" t="s" s="25">
         <v>919</v>
       </c>
       <c r="Q120" t="s" s="17">
-        <v>117</v>
-      </c>
-      <c r="R120" t="s" s="17">
         <v>920</v>
       </c>
-      <c r="S120" t="s" s="17">
+      <c r="R120" t="s" s="15">
         <v>921</v>
       </c>
+      <c r="S120" s="17"/>
       <c r="T120" t="s" s="17">
         <v>922</v>
       </c>
-      <c r="U120" t="s" s="17">
-        <v>923</v>
-      </c>
+      <c r="U120" s="17"/>
       <c r="V120" s="17"/>
     </row>
     <row r="121" ht="20.25" customHeight="1">
       <c r="A121" s="13">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="13">
         <f>J121</f>
-        <v>113</v>
+        <v>129.4</v>
       </c>
       <c r="C121" t="s" s="14">
         <f>CONCATENATE(E121," ",F121)</f>
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="D121" t="s" s="38">
         <v>924</v>
       </c>
       <c r="E121" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F121" t="s" s="17">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="G121" t="s" s="17">
         <v>30</v>
@@ -13026,47 +13048,47 @@
         <v>86</v>
       </c>
       <c r="I121" s="18">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="J121" s="18">
-        <v>113</v>
+        <v>129.4</v>
       </c>
       <c r="K121" t="s" s="17">
-        <v>286</v>
+        <v>926</v>
       </c>
       <c r="L121" s="19"/>
       <c r="M121" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N121" t="s" s="17">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="O121" t="s" s="17">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="P121" t="s" s="17">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="Q121" t="s" s="17">
         <v>117</v>
       </c>
       <c r="R121" t="s" s="17">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="S121" t="s" s="17">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="T121" t="s" s="17">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="U121" t="s" s="17">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="V121" s="17"/>
     </row>
     <row r="122" ht="20.25" customHeight="1">
       <c r="A122" s="13">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="13">
         <f>J122</f>
@@ -13074,16 +13096,16 @@
       </c>
       <c r="C122" t="s" s="14">
         <f>CONCATENATE(E122," ",F122)</f>
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="D122" t="s" s="38">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="E122" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F122" t="s" s="17">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="G122" t="s" s="17">
         <v>30</v>
@@ -13098,41 +13120,41 @@
         <v>113</v>
       </c>
       <c r="K122" t="s" s="17">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L122" s="19"/>
       <c r="M122" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N122" t="s" s="17">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="O122" t="s" s="17">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="P122" t="s" s="17">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="Q122" t="s" s="17">
         <v>117</v>
       </c>
       <c r="R122" t="s" s="17">
+        <v>936</v>
+      </c>
+      <c r="S122" t="s" s="17">
+        <v>930</v>
+      </c>
+      <c r="T122" t="s" s="17">
         <v>931</v>
       </c>
-      <c r="S122" t="s" s="17">
-        <v>921</v>
-      </c>
-      <c r="T122" t="s" s="17">
-        <v>922</v>
-      </c>
       <c r="U122" t="s" s="17">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="V122" s="17"/>
     </row>
     <row r="123" ht="20.25" customHeight="1">
       <c r="A123" s="13">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="13">
         <f>J123</f>
@@ -13140,16 +13162,16 @@
       </c>
       <c r="C123" t="s" s="14">
         <f>CONCATENATE(E123," ",F123)</f>
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="D123" t="s" s="38">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E123" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F123" t="s" s="17">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="G123" t="s" s="17">
         <v>30</v>
@@ -13164,156 +13186,158 @@
         <v>113</v>
       </c>
       <c r="K123" t="s" s="17">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="L123" s="19"/>
       <c r="M123" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N123" t="s" s="17">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="O123" t="s" s="17">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="P123" t="s" s="17">
-        <v>930</v>
+        <v>939</v>
       </c>
       <c r="Q123" t="s" s="17">
         <v>117</v>
       </c>
       <c r="R123" t="s" s="17">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="S123" t="s" s="17">
-        <v>921</v>
+        <v>930</v>
       </c>
       <c r="T123" t="s" s="17">
-        <v>922</v>
+        <v>931</v>
       </c>
       <c r="U123" t="s" s="17">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="V123" s="17"/>
     </row>
     <row r="124" ht="20.25" customHeight="1">
       <c r="A124" s="13">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="13">
         <f>J124</f>
-        <v>72.09999999999999</v>
+        <v>113</v>
       </c>
       <c r="C124" t="s" s="14">
         <f>CONCATENATE(E124," ",F124)</f>
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="D124" t="s" s="38">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="E124" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F124" t="s" s="17">
-        <v>857</v>
+        <v>925</v>
       </c>
       <c r="G124" t="s" s="17">
         <v>30</v>
       </c>
-      <c r="H124" t="s" s="17">
-        <v>94</v>
+      <c r="H124" t="s" s="27">
+        <v>86</v>
       </c>
       <c r="I124" s="18">
-        <v>83.59999999999999</v>
+        <v>125</v>
       </c>
       <c r="J124" s="18">
-        <v>72.09999999999999</v>
+        <v>113</v>
       </c>
       <c r="K124" t="s" s="17">
-        <v>936</v>
-      </c>
-      <c r="L124" t="s" s="72">
-        <v>937</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="L124" s="19"/>
       <c r="M124" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N124" t="s" s="17">
-        <v>715</v>
-      </c>
-      <c r="O124" s="17"/>
+        <v>220</v>
+      </c>
+      <c r="O124" t="s" s="17">
+        <v>938</v>
+      </c>
       <c r="P124" t="s" s="17">
-        <v>938</v>
-      </c>
-      <c r="Q124" s="17"/>
+        <v>939</v>
+      </c>
+      <c r="Q124" t="s" s="17">
+        <v>117</v>
+      </c>
       <c r="R124" t="s" s="17">
-        <v>939</v>
-      </c>
-      <c r="S124" s="17"/>
+        <v>942</v>
+      </c>
+      <c r="S124" t="s" s="17">
+        <v>930</v>
+      </c>
       <c r="T124" t="s" s="17">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="U124" t="s" s="17">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="V124" s="17"/>
     </row>
     <row r="125" ht="20.25" customHeight="1">
       <c r="A125" s="13">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="13">
         <f>J125</f>
-        <v>2.58</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C125" t="s" s="14">
         <f>CONCATENATE(E125," ",F125)</f>
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D125" t="s" s="38">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E125" t="s" s="17">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="F125" t="s" s="17">
-        <v>518</v>
+        <v>866</v>
       </c>
       <c r="G125" t="s" s="17">
         <v>30</v>
       </c>
       <c r="H125" t="s" s="17">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I125" s="18">
-        <v>3.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J125" s="18">
-        <v>2.58</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K125" t="s" s="17">
-        <v>944</v>
-      </c>
-      <c r="L125" s="72"/>
+        <v>945</v>
+      </c>
+      <c r="L125" t="s" s="72">
+        <v>946</v>
+      </c>
       <c r="M125" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N125" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O125" t="s" s="28">
-        <v>945</v>
-      </c>
-      <c r="P125" t="s" s="28">
-        <v>946</v>
+        <v>724</v>
+      </c>
+      <c r="O125" s="17"/>
+      <c r="P125" t="s" s="17">
+        <v>947</v>
       </c>
       <c r="Q125" s="17"/>
-      <c r="R125" t="s" s="32">
-        <v>947</v>
-      </c>
-      <c r="S125" t="s" s="32">
+      <c r="R125" t="s" s="17">
         <v>948</v>
       </c>
+      <c r="S125" s="17"/>
       <c r="T125" t="s" s="17">
         <v>949</v>
       </c>
@@ -13324,15 +13348,15 @@
     </row>
     <row r="126" ht="20.25" customHeight="1">
       <c r="A126" s="13">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="13">
         <f>J126</f>
-        <v>33.9</v>
+        <v>2.58</v>
       </c>
       <c r="C126" t="s" s="14">
         <f>CONCATENATE(E126," ",F126)</f>
-        <v>942</v>
+        <v>216</v>
       </c>
       <c r="D126" t="s" s="38">
         <v>951</v>
@@ -13341,7 +13365,7 @@
         <v>56</v>
       </c>
       <c r="F126" t="s" s="17">
-        <v>518</v>
+        <v>218</v>
       </c>
       <c r="G126" t="s" s="17">
         <v>30</v>
@@ -13350,10 +13374,10 @@
         <v>58</v>
       </c>
       <c r="I126" s="18">
-        <v>37.8</v>
+        <v>3.6</v>
       </c>
       <c r="J126" s="18">
-        <v>33.9</v>
+        <v>2.58</v>
       </c>
       <c r="K126" t="s" s="17">
         <v>952</v>
@@ -13363,84 +13387,88 @@
         <v>32</v>
       </c>
       <c r="N126" t="s" s="17">
-        <v>127</v>
-      </c>
-      <c r="O126" s="28"/>
-      <c r="P126" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="O126" t="s" s="28">
+        <v>953</v>
+      </c>
+      <c r="P126" t="s" s="28">
+        <v>954</v>
+      </c>
       <c r="Q126" s="17"/>
-      <c r="R126" s="17"/>
-      <c r="S126" s="17"/>
+      <c r="R126" t="s" s="32">
+        <v>955</v>
+      </c>
+      <c r="S126" t="s" s="32">
+        <v>956</v>
+      </c>
       <c r="T126" t="s" s="17">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="U126" t="s" s="17">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="V126" s="17"/>
     </row>
     <row r="127" ht="20.25" customHeight="1">
       <c r="A127" s="13">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="13">
         <f>J127</f>
-        <v>72.09999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="C127" t="s" s="14">
         <f>CONCATENATE(E127," ",F127)</f>
-        <v>934</v>
+        <v>216</v>
       </c>
       <c r="D127" t="s" s="38">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="E127" t="s" s="17">
-        <v>313</v>
+        <v>56</v>
       </c>
       <c r="F127" t="s" s="17">
-        <v>857</v>
+        <v>218</v>
       </c>
       <c r="G127" t="s" s="17">
         <v>30</v>
       </c>
       <c r="H127" t="s" s="17">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="I127" s="18">
-        <v>83.59999999999999</v>
+        <v>37.8</v>
       </c>
       <c r="J127" s="18">
-        <v>72.09999999999999</v>
+        <v>33.9</v>
       </c>
       <c r="K127" t="s" s="17">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="L127" s="72"/>
       <c r="M127" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N127" t="s" s="17">
-        <v>715</v>
-      </c>
-      <c r="O127" t="s" s="73">
-        <v>956</v>
-      </c>
-      <c r="P127" t="s" s="28">
-        <v>957</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O127" s="28"/>
+      <c r="P127" s="28"/>
       <c r="Q127" s="17"/>
-      <c r="R127" t="s" s="73">
-        <v>958</v>
-      </c>
+      <c r="R127" s="17"/>
       <c r="S127" s="17"/>
       <c r="T127" t="s" s="17">
-        <v>959</v>
-      </c>
-      <c r="U127" s="17"/>
+        <v>961</v>
+      </c>
+      <c r="U127" t="s" s="17">
+        <v>962</v>
+      </c>
       <c r="V127" s="17"/>
     </row>
     <row r="128" ht="20.25" customHeight="1">
       <c r="A128" s="13">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="13">
         <f>J128</f>
@@ -13448,22 +13476,22 @@
       </c>
       <c r="C128" t="s" s="14">
         <f>CONCATENATE(E128," ",F128)</f>
-        <v>768</v>
-      </c>
-      <c r="D128" t="s" s="74">
-        <v>960</v>
+        <v>943</v>
+      </c>
+      <c r="D128" t="s" s="38">
+        <v>963</v>
       </c>
       <c r="E128" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F128" t="s" s="17">
-        <v>770</v>
+        <v>866</v>
       </c>
       <c r="G128" t="s" s="17">
-        <v>771</v>
+        <v>30</v>
       </c>
       <c r="H128" t="s" s="17">
-        <v>772</v>
+        <v>94</v>
       </c>
       <c r="I128" s="18">
         <v>83.59999999999999</v>
@@ -13472,35 +13500,35 @@
         <v>72.09999999999999</v>
       </c>
       <c r="K128" t="s" s="17">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="L128" s="72"/>
       <c r="M128" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N128" t="s" s="17">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="O128" t="s" s="73">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="P128" t="s" s="28">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="Q128" s="17"/>
-      <c r="R128" t="s" s="75">
-        <v>962</v>
+      <c r="R128" t="s" s="73">
+        <v>966</v>
       </c>
       <c r="S128" s="17"/>
       <c r="T128" t="s" s="17">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="U128" s="17"/>
       <c r="V128" s="17"/>
     </row>
     <row r="129" ht="20.25" customHeight="1">
       <c r="A129" s="13">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="13">
         <f>J129</f>
@@ -13508,22 +13536,22 @@
       </c>
       <c r="C129" t="s" s="14">
         <f>CONCATENATE(E129," ",F129)</f>
-        <v>963</v>
+        <v>777</v>
       </c>
       <c r="D129" t="s" s="74">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="E129" t="s" s="17">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="F129" t="s" s="17">
-        <v>965</v>
+        <v>779</v>
       </c>
       <c r="G129" t="s" s="17">
-        <v>30</v>
+        <v>780</v>
       </c>
       <c r="H129" t="s" s="17">
-        <v>745</v>
+        <v>781</v>
       </c>
       <c r="I129" s="18">
         <v>83.59999999999999</v>
@@ -13532,37 +13560,35 @@
         <v>72.09999999999999</v>
       </c>
       <c r="K129" t="s" s="17">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="L129" s="72"/>
       <c r="M129" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N129" t="s" s="17">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="O129" t="s" s="73">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="P129" t="s" s="28">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="Q129" s="17"/>
       <c r="R129" t="s" s="75">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="S129" s="17"/>
       <c r="T129" t="s" s="17">
-        <v>959</v>
-      </c>
-      <c r="U129" t="s" s="17">
-        <v>968</v>
-      </c>
+        <v>967</v>
+      </c>
+      <c r="U129" s="17"/>
       <c r="V129" s="17"/>
     </row>
     <row r="130" ht="20.25" customHeight="1">
       <c r="A130" s="13">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="13">
         <f>J130</f>
@@ -13570,22 +13596,22 @@
       </c>
       <c r="C130" t="s" s="14">
         <f>CONCATENATE(E130," ",F130)</f>
-        <v>302</v>
-      </c>
-      <c r="D130" t="s" s="38">
-        <v>969</v>
+        <v>971</v>
+      </c>
+      <c r="D130" t="s" s="74">
+        <v>972</v>
       </c>
       <c r="E130" t="s" s="17">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="F130" t="s" s="17">
-        <v>304</v>
+        <v>973</v>
       </c>
       <c r="G130" t="s" s="17">
         <v>30</v>
       </c>
       <c r="H130" t="s" s="17">
-        <v>304</v>
+        <v>754</v>
       </c>
       <c r="I130" s="18">
         <v>83.59999999999999</v>
@@ -13594,35 +13620,37 @@
         <v>72.09999999999999</v>
       </c>
       <c r="K130" t="s" s="17">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="L130" s="72"/>
       <c r="M130" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N130" t="s" s="17">
-        <v>715</v>
-      </c>
-      <c r="O130" t="s" s="75">
-        <v>970</v>
+        <v>724</v>
+      </c>
+      <c r="O130" t="s" s="73">
+        <v>974</v>
       </c>
       <c r="P130" t="s" s="28">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="Q130" s="17"/>
       <c r="R130" t="s" s="75">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="S130" s="17"/>
       <c r="T130" t="s" s="17">
-        <v>959</v>
-      </c>
-      <c r="U130" s="17"/>
+        <v>967</v>
+      </c>
+      <c r="U130" t="s" s="17">
+        <v>976</v>
+      </c>
       <c r="V130" s="17"/>
     </row>
     <row r="131" ht="20.25" customHeight="1">
       <c r="A131" s="13">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="13">
         <f>J131</f>
@@ -13630,22 +13658,22 @@
       </c>
       <c r="C131" t="s" s="14">
         <f>CONCATENATE(E131," ",F131)</f>
-        <v>972</v>
+        <v>312</v>
       </c>
       <c r="D131" t="s" s="38">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E131" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F131" t="s" s="17">
-        <v>557</v>
+        <v>314</v>
       </c>
       <c r="G131" t="s" s="17">
-        <v>556</v>
+        <v>30</v>
       </c>
       <c r="H131" t="s" s="17">
-        <v>557</v>
+        <v>314</v>
       </c>
       <c r="I131" s="18">
         <v>83.59999999999999</v>
@@ -13654,133 +13682,193 @@
         <v>72.09999999999999</v>
       </c>
       <c r="K131" t="s" s="17">
-        <v>936</v>
+        <v>945</v>
       </c>
       <c r="L131" s="72"/>
       <c r="M131" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N131" t="s" s="17">
-        <v>715</v>
-      </c>
-      <c r="O131" t="s" s="73">
-        <v>974</v>
+        <v>724</v>
+      </c>
+      <c r="O131" t="s" s="75">
+        <v>978</v>
       </c>
       <c r="P131" t="s" s="28">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="Q131" s="17"/>
-      <c r="R131" t="s" s="73">
-        <v>975</v>
+      <c r="R131" t="s" s="75">
+        <v>979</v>
       </c>
       <c r="S131" s="17"/>
       <c r="T131" t="s" s="17">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="U131" s="17"/>
       <c r="V131" s="17"/>
     </row>
     <row r="132" ht="20.25" customHeight="1">
       <c r="A132" s="13">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="13">
         <f>J132</f>
-        <v>407.6</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="C132" t="s" s="14">
         <f>CONCATENATE(E132," ",F132)</f>
-        <v>976</v>
-      </c>
-      <c r="D132" t="s" s="17">
-        <v>977</v>
+        <v>980</v>
+      </c>
+      <c r="D132" t="s" s="38">
+        <v>981</v>
       </c>
       <c r="E132" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F132" t="s" s="17">
-        <v>978</v>
-      </c>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
+        <v>566</v>
+      </c>
+      <c r="G132" t="s" s="17">
+        <v>565</v>
+      </c>
+      <c r="H132" t="s" s="17">
+        <v>566</v>
+      </c>
       <c r="I132" s="18">
-        <v>410.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="J132" s="18">
-        <v>407.6</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="K132" t="s" s="17">
-        <v>979</v>
-      </c>
-      <c r="L132" s="17"/>
+        <v>945</v>
+      </c>
+      <c r="L132" s="72"/>
       <c r="M132" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N132" t="s" s="17">
-        <v>243</v>
-      </c>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
+        <v>724</v>
+      </c>
+      <c r="O132" t="s" s="73">
+        <v>982</v>
+      </c>
+      <c r="P132" t="s" s="28">
+        <v>965</v>
+      </c>
       <c r="Q132" s="17"/>
-      <c r="R132" s="17"/>
+      <c r="R132" t="s" s="73">
+        <v>983</v>
+      </c>
       <c r="S132" s="17"/>
       <c r="T132" t="s" s="17">
-        <v>980</v>
-      </c>
-      <c r="U132" s="16"/>
-      <c r="V132" s="16"/>
+        <v>967</v>
+      </c>
+      <c r="U132" s="17"/>
+      <c r="V132" s="17"/>
     </row>
     <row r="133" ht="20.25" customHeight="1">
       <c r="A133" s="13">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="13">
         <f>J133</f>
-        <v>410.8</v>
+        <v>407.6</v>
       </c>
       <c r="C133" t="s" s="14">
         <f>CONCATENATE(E133," ",F133)</f>
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="D133" t="s" s="17">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E133" t="s" s="17">
         <v>56</v>
       </c>
       <c r="F133" t="s" s="17">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
       <c r="I133" s="18">
-        <v>419.2</v>
+        <v>410.8</v>
       </c>
       <c r="J133" s="18">
-        <v>410.8</v>
+        <v>407.6</v>
       </c>
       <c r="K133" t="s" s="17">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="L133" s="17"/>
       <c r="M133" t="s" s="20">
         <v>32</v>
       </c>
       <c r="N133" t="s" s="17">
-        <v>185</v>
-      </c>
-      <c r="O133" t="s" s="25">
-        <v>985</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="O133" s="17"/>
       <c r="P133" s="17"/>
       <c r="Q133" s="17"/>
       <c r="R133" s="17"/>
       <c r="S133" s="17"/>
       <c r="T133" t="s" s="17">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="U133" s="16"/>
       <c r="V133" s="16"/>
+    </row>
+    <row r="134" ht="20.25" customHeight="1">
+      <c r="A134" s="13">
+        <v>132</v>
+      </c>
+      <c r="B134" s="13">
+        <f>J134</f>
+        <v>410.8</v>
+      </c>
+      <c r="C134" t="s" s="14">
+        <f>CONCATENATE(E134," ",F134)</f>
+        <v>989</v>
+      </c>
+      <c r="D134" t="s" s="17">
+        <v>990</v>
+      </c>
+      <c r="E134" t="s" s="17">
+        <v>56</v>
+      </c>
+      <c r="F134" t="s" s="17">
+        <v>991</v>
+      </c>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="18">
+        <v>419.2</v>
+      </c>
+      <c r="J134" s="18">
+        <v>410.8</v>
+      </c>
+      <c r="K134" t="s" s="17">
+        <v>992</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="N134" t="s" s="17">
+        <v>185</v>
+      </c>
+      <c r="O134" t="s" s="25">
+        <v>993</v>
+      </c>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
+      <c r="R134" s="17"/>
+      <c r="S134" s="17"/>
+      <c r="T134" t="s" s="17">
+        <v>994</v>
+      </c>
+      <c r="U134" s="16"/>
+      <c r="V134" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
